--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\Gamelab1-Jaar2\Concept\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\Gamelab1-Jaar2\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="586">
   <si>
     <t>Arne</t>
   </si>
@@ -1696,26 +1696,104 @@
     <t>WaterShader.shader</t>
   </si>
   <si>
-    <t>PickUpHearts.cs</t>
-  </si>
-  <si>
-    <t>OptionsSettings.cs</t>
-  </si>
-  <si>
     <t>WEEK 16</t>
   </si>
   <si>
-    <t>PlayerSpawner.cs</t>
-  </si>
-  <si>
-    <t>CutSceneController.cs</t>
+    <t>HeartScript.cs</t>
+  </si>
+  <si>
+    <t>2D_TXT_FALLENTREETRUNK</t>
+  </si>
+  <si>
+    <t>3D_ENV_FALLENTREETRUNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D_TXT_TREE1 </t>
+  </si>
+  <si>
+    <t>AFWEZIG</t>
+  </si>
+  <si>
+    <t>DestructibleScript.cs X</t>
+  </si>
+  <si>
+    <t>PickUpScript.cs X</t>
+  </si>
+  <si>
+    <t>3D_ENV_BOULDER1 X</t>
+  </si>
+  <si>
+    <t>InteractScript.cs X</t>
+  </si>
+  <si>
+    <t>StatsManager.cs X</t>
+  </si>
+  <si>
+    <t>PlayerSpawner.cs X</t>
+  </si>
+  <si>
+    <t>OptionsSettings.cs X</t>
+  </si>
+  <si>
+    <t>CutSceneController.cs X</t>
+  </si>
+  <si>
+    <t>CameraController.cs X</t>
+  </si>
+  <si>
+    <t>ProgressionManager.cs X</t>
+  </si>
+  <si>
+    <t>QuestManager.cs X</t>
+  </si>
+  <si>
+    <t>QuestClass.cs X</t>
+  </si>
+  <si>
+    <t>LoadController.cs X</t>
+  </si>
+  <si>
+    <t>2D_TXT_FENCE1 X</t>
+  </si>
+  <si>
+    <t>3D_PRP_FENCE1 X</t>
+  </si>
+  <si>
+    <t>2D_TXT_BOULDER1 X</t>
+  </si>
+  <si>
+    <t>3D_ENV_TREE1 X</t>
+  </si>
+  <si>
+    <t>2D_TXT_STONE1 X</t>
+  </si>
+  <si>
+    <t>3D_ENV_STONE1 X</t>
+  </si>
+  <si>
+    <t>4U_PRP_FENCE1 X</t>
+  </si>
+  <si>
+    <t>2D_TXT_WALL X</t>
+  </si>
+  <si>
+    <t>4U_ENV_WALL X</t>
+  </si>
+  <si>
+    <t>3D_ENV_WALL X</t>
+  </si>
+  <si>
+    <t>PRESENTATIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1740,6 +1818,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1828,10 +1913,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1853,8 +1939,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2138,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ES20"/>
+  <dimension ref="A1:EU20"/>
   <sheetViews>
-    <sheetView topLeftCell="DZ1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,9 +2241,11 @@
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="88" max="88" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2598,8 +2688,14 @@
       <c r="ES1" s="3">
         <v>42757</v>
       </c>
-    </row>
-    <row r="2" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="ET1" s="3">
+        <v>42392</v>
+      </c>
+      <c r="EU1" s="3">
+        <v>42393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2621,8 +2717,14 @@
       <c r="G2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="3" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="CJ2" t="s">
+        <v>585</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2644,8 +2746,14 @@
       <c r="G3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="4" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="CJ3" t="s">
+        <v>585</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>434</v>
       </c>
@@ -2667,8 +2775,14 @@
       <c r="G4" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="5" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="CJ4" t="s">
+        <v>585</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2690,16 +2804,34 @@
       <c r="G5" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="6" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="CJ5" t="s">
+        <v>585</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="CJ6" t="s">
+        <v>585</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="CJ7" t="s">
+        <v>585</v>
+      </c>
+      <c r="EU7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2721,8 +2853,14 @@
       <c r="G8" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="9" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="CJ8" t="s">
+        <v>585</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2744,8 +2882,14 @@
       <c r="G9" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="10" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="CJ9" t="s">
+        <v>585</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2767,8 +2911,14 @@
       <c r="G10" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="11" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="CJ10" t="s">
+        <v>585</v>
+      </c>
+      <c r="EU10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3210,8 +3360,14 @@
       <c r="ES11" s="3">
         <v>42757</v>
       </c>
-    </row>
-    <row r="12" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="ET11" s="3">
+        <v>42392</v>
+      </c>
+      <c r="EU11" s="3">
+        <v>42393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3333,6 +3489,9 @@
       <c r="CH12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="CJ12" t="s">
+        <v>585</v>
+      </c>
       <c r="CN12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3417,8 +3576,11 @@
       <c r="ES12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="EU12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3446,11 +3608,17 @@
       <c r="BS13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="CJ13" t="s">
+        <v>585</v>
+      </c>
       <c r="ES13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="EU13" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>434</v>
       </c>
@@ -3499,6 +3667,9 @@
       <c r="CI14" t="s">
         <v>488</v>
       </c>
+      <c r="CJ14" t="s">
+        <v>585</v>
+      </c>
       <c r="CP14" t="s">
         <v>489</v>
       </c>
@@ -3517,8 +3688,11 @@
       <c r="EM14" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="15" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="EU14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3540,16 +3714,463 @@
       <c r="G15" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="16" spans="1:149" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>561</v>
+      </c>
+      <c r="K15" t="s">
+        <v>561</v>
+      </c>
+      <c r="L15" t="s">
+        <v>561</v>
+      </c>
+      <c r="M15" t="s">
+        <v>561</v>
+      </c>
+      <c r="N15" t="s">
+        <v>561</v>
+      </c>
+      <c r="O15" t="s">
+        <v>561</v>
+      </c>
+      <c r="P15" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>561</v>
+      </c>
+      <c r="R15" t="s">
+        <v>561</v>
+      </c>
+      <c r="S15" t="s">
+        <v>561</v>
+      </c>
+      <c r="T15" t="s">
+        <v>561</v>
+      </c>
+      <c r="U15" t="s">
+        <v>561</v>
+      </c>
+      <c r="V15" t="s">
+        <v>561</v>
+      </c>
+      <c r="W15" t="s">
+        <v>561</v>
+      </c>
+      <c r="X15" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>561</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>561</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>561</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DJ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>561</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>561</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EO15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>561</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>561</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>561</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>561</v>
+      </c>
+      <c r="EU15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3571,8 +4192,11 @@
       <c r="G18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3595,7 +4219,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -3626,10 +4250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J353"/>
+  <dimension ref="A1:J354"/>
   <sheetViews>
-    <sheetView topLeftCell="C105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,7 +4261,7 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -4507,6 +5131,9 @@
       <c r="G47" t="s">
         <v>495</v>
       </c>
+      <c r="H47" t="s">
+        <v>539</v>
+      </c>
       <c r="J47" t="s">
         <v>3</v>
       </c>
@@ -4523,6 +5150,9 @@
       <c r="G48" t="s">
         <v>501</v>
       </c>
+      <c r="H48" t="s">
+        <v>539</v>
+      </c>
       <c r="J48" t="s">
         <v>3</v>
       </c>
@@ -4539,6 +5169,9 @@
       <c r="G49" t="s">
         <v>502</v>
       </c>
+      <c r="H49" t="s">
+        <v>539</v>
+      </c>
       <c r="J49" t="s">
         <v>3</v>
       </c>
@@ -7141,6 +7774,9 @@
       <c r="G197" t="s">
         <v>502</v>
       </c>
+      <c r="H197" t="s">
+        <v>7</v>
+      </c>
       <c r="J197" t="s">
         <v>3</v>
       </c>
@@ -7157,6 +7793,9 @@
       <c r="G198" t="s">
         <v>495</v>
       </c>
+      <c r="H198" t="s">
+        <v>7</v>
+      </c>
       <c r="J198" t="s">
         <v>3</v>
       </c>
@@ -7173,6 +7812,9 @@
       <c r="G199" t="s">
         <v>495</v>
       </c>
+      <c r="H199" t="s">
+        <v>5</v>
+      </c>
       <c r="J199" t="s">
         <v>3</v>
       </c>
@@ -7189,6 +7831,9 @@
       <c r="G200" t="s">
         <v>495</v>
       </c>
+      <c r="H200" t="s">
+        <v>5</v>
+      </c>
       <c r="J200" t="s">
         <v>3</v>
       </c>
@@ -7205,6 +7850,9 @@
       <c r="G201" t="s">
         <v>502</v>
       </c>
+      <c r="H201" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
@@ -7218,6 +7866,9 @@
       <c r="G202" t="s">
         <v>495</v>
       </c>
+      <c r="H202" t="s">
+        <v>6</v>
+      </c>
       <c r="J202" t="s">
         <v>3</v>
       </c>
@@ -7237,6 +7888,9 @@
       <c r="G203" t="s">
         <v>501</v>
       </c>
+      <c r="H203" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
@@ -7250,6 +7904,9 @@
       <c r="G204" t="s">
         <v>495</v>
       </c>
+      <c r="H204" t="s">
+        <v>6</v>
+      </c>
       <c r="J204" t="s">
         <v>3</v>
       </c>
@@ -7279,6 +7936,9 @@
       <c r="G207" t="s">
         <v>495</v>
       </c>
+      <c r="H207" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
@@ -7295,6 +7955,9 @@
       <c r="G208" t="s">
         <v>495</v>
       </c>
+      <c r="H208" t="s">
+        <v>7</v>
+      </c>
       <c r="J208" t="s">
         <v>3</v>
       </c>
@@ -7309,7 +7972,10 @@
         <v>177</v>
       </c>
       <c r="G209" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="H209" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7324,6 +7990,12 @@
       <c r="G210" t="s">
         <v>501</v>
       </c>
+      <c r="H210" t="s">
+        <v>6</v>
+      </c>
+      <c r="J210" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
@@ -7337,6 +8009,9 @@
       <c r="G211" t="s">
         <v>495</v>
       </c>
+      <c r="H211" t="s">
+        <v>7</v>
+      </c>
       <c r="J211" t="s">
         <v>3</v>
       </c>
@@ -7353,6 +8028,12 @@
       <c r="G212" t="s">
         <v>501</v>
       </c>
+      <c r="H212" t="s">
+        <v>5</v>
+      </c>
+      <c r="J212" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
@@ -7366,6 +8047,9 @@
       <c r="G213" t="s">
         <v>495</v>
       </c>
+      <c r="H213" t="s">
+        <v>5</v>
+      </c>
       <c r="J213" t="s">
         <v>3</v>
       </c>
@@ -7445,6 +8129,12 @@
       <c r="G218" t="s">
         <v>502</v>
       </c>
+      <c r="H218" t="s">
+        <v>7</v>
+      </c>
+      <c r="J218" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
@@ -9144,44 +9834,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="11" t="s">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="14"/>
+      <c r="B347" s="15"/>
+      <c r="C347" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="G347" t="s">
+        <v>495</v>
+      </c>
+      <c r="H347" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B347" s="11" t="s">
+      <c r="B348" s="11" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
-      <c r="B348" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C348" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
-      <c r="B349" s="14"/>
+      <c r="B349" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C349" t="s">
-        <v>331</v>
-      </c>
-      <c r="D349" t="s">
-        <v>332</v>
-      </c>
-      <c r="G349" t="s">
-        <v>501</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D350" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G350" t="s">
         <v>501</v>
@@ -9190,26 +9880,39 @@
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
+      <c r="C351" t="s">
+        <v>333</v>
+      </c>
+      <c r="D351" t="s">
+        <v>334</v>
+      </c>
+      <c r="G351" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
-      <c r="B352" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C352" t="s">
-        <v>51</v>
-      </c>
+      <c r="B352" s="14"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
-      <c r="B353" s="14"/>
+      <c r="B353" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C353" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="14"/>
+      <c r="B354" s="14"/>
+      <c r="C354" t="s">
         <v>335</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D354" t="s">
         <v>336</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G354" t="s">
         <v>501</v>
       </c>
     </row>
@@ -9221,18 +9924,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -9282,7 +9986,7 @@
         <v>494</v>
       </c>
       <c r="Q1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9339,287 +10043,326 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>414</v>
-      </c>
       <c r="C3" s="20" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="20" t="s">
-        <v>414</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>416</v>
-      </c>
-    </row>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="C5" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
       <c r="B11" s="20" t="s">
-        <v>413</v>
+        <v>566</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>393</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="20" t="s">
-        <v>415</v>
+        <v>568</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>394</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="20" t="s">
-        <v>425</v>
+        <v>571</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="20" t="s">
-        <v>420</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="20" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="20" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="C24" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E25" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
     <row r="26" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>388</v>
+        <v>580</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>83</v>
+        <v>250</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>387</v>
+        <v>577</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>389</v>
+        <v>564</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
     <row r="30" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>131</v>
+        <v>576</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>133</v>
+        <v>581</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -9649,7 +10392,32 @@
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
     </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="590">
   <si>
     <t>Arne</t>
   </si>
@@ -1714,76 +1714,88 @@
     <t>AFWEZIG</t>
   </si>
   <si>
-    <t>DestructibleScript.cs X</t>
-  </si>
-  <si>
-    <t>PickUpScript.cs X</t>
-  </si>
-  <si>
-    <t>3D_ENV_BOULDER1 X</t>
-  </si>
-  <si>
-    <t>InteractScript.cs X</t>
-  </si>
-  <si>
-    <t>StatsManager.cs X</t>
-  </si>
-  <si>
-    <t>PlayerSpawner.cs X</t>
-  </si>
-  <si>
-    <t>OptionsSettings.cs X</t>
-  </si>
-  <si>
-    <t>CutSceneController.cs X</t>
-  </si>
-  <si>
-    <t>CameraController.cs X</t>
-  </si>
-  <si>
-    <t>ProgressionManager.cs X</t>
-  </si>
-  <si>
-    <t>QuestManager.cs X</t>
-  </si>
-  <si>
-    <t>QuestClass.cs X</t>
-  </si>
-  <si>
-    <t>LoadController.cs X</t>
-  </si>
-  <si>
-    <t>2D_TXT_FENCE1 X</t>
-  </si>
-  <si>
-    <t>3D_PRP_FENCE1 X</t>
-  </si>
-  <si>
-    <t>2D_TXT_BOULDER1 X</t>
-  </si>
-  <si>
-    <t>3D_ENV_TREE1 X</t>
-  </si>
-  <si>
-    <t>2D_TXT_STONE1 X</t>
-  </si>
-  <si>
-    <t>3D_ENV_STONE1 X</t>
-  </si>
-  <si>
-    <t>4U_PRP_FENCE1 X</t>
-  </si>
-  <si>
-    <t>2D_TXT_WALL X</t>
-  </si>
-  <si>
-    <t>4U_ENV_WALL X</t>
-  </si>
-  <si>
-    <t>3D_ENV_WALL X</t>
-  </si>
-  <si>
     <t>PRESENTATIE</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StatsManager.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgressionManager.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptionsSettings.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CameraController.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">InteractScript.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CutSceneController.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuestManager.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuestClass.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoadController.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerSpawner.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PickUpScript.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DestructibleScript.cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D_ENV_TREE1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D_TXT_STONE1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D_ENV_STONE1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D_TXT_BOULDER1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D_ENV_BOULDER1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D_TXT_FENCE1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D_PRP_FENCE1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4U_PRP_FENCE1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D_TXT_WALL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D_ENV_WALL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4U_ENV_WALL </t>
+  </si>
+  <si>
+    <t>SmokeBomb.cs</t>
+  </si>
+  <si>
+    <t>GrapplingHook? SASCHA</t>
+  </si>
+  <si>
+    <t>2D_TXT_STAIRWALL</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1940,6 +1952,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2718,10 +2731,10 @@
         <v>514</v>
       </c>
       <c r="CJ2" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="EU2" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
@@ -2747,10 +2760,10 @@
         <v>514</v>
       </c>
       <c r="CJ3" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="EU3" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
@@ -2776,10 +2789,10 @@
         <v>514</v>
       </c>
       <c r="CJ4" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="EU4" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -2805,19 +2818,19 @@
         <v>514</v>
       </c>
       <c r="CJ5" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="EU5" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="CJ6" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="EU6" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
@@ -2825,10 +2838,10 @@
         <v>4</v>
       </c>
       <c r="CJ7" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="EU7" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
@@ -2854,10 +2867,10 @@
         <v>514</v>
       </c>
       <c r="CJ8" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="EU8" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
@@ -2883,10 +2896,10 @@
         <v>514</v>
       </c>
       <c r="CJ9" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="EU9" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
@@ -2912,10 +2925,10 @@
         <v>514</v>
       </c>
       <c r="CJ10" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="EU10" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
@@ -3490,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="CJ12" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="CN12" s="1" t="s">
         <v>11</v>
@@ -3577,7 +3590,7 @@
         <v>11</v>
       </c>
       <c r="EU12" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:151" x14ac:dyDescent="0.25">
@@ -3609,13 +3622,13 @@
         <v>13</v>
       </c>
       <c r="CJ13" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="ES13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="EU13" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
@@ -3668,7 +3681,7 @@
         <v>488</v>
       </c>
       <c r="CJ14" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="CP14" t="s">
         <v>489</v>
@@ -3689,7 +3702,7 @@
         <v>494</v>
       </c>
       <c r="EU14" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
@@ -4252,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J354"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="C144" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4274,7 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -8299,7 +8312,7 @@
         <v>345</v>
       </c>
       <c r="G231" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H231" t="s">
         <v>5</v>
@@ -8315,7 +8328,7 @@
         <v>346</v>
       </c>
       <c r="G232" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H232" t="s">
         <v>5</v>
@@ -8331,7 +8344,7 @@
         <v>350</v>
       </c>
       <c r="G233" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H233" t="s">
         <v>5</v>
@@ -8347,7 +8360,7 @@
         <v>347</v>
       </c>
       <c r="G234" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H234" t="s">
         <v>5</v>
@@ -8363,7 +8376,7 @@
         <v>348</v>
       </c>
       <c r="G235" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H235" t="s">
         <v>5</v>
@@ -8379,7 +8392,7 @@
         <v>349</v>
       </c>
       <c r="G236" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H236" t="s">
         <v>5</v>
@@ -8395,7 +8408,7 @@
         <v>351</v>
       </c>
       <c r="G237" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H237" t="s">
         <v>5</v>
@@ -8411,7 +8424,7 @@
         <v>352</v>
       </c>
       <c r="G238" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H238" t="s">
         <v>5</v>
@@ -8427,7 +8440,7 @@
         <v>380</v>
       </c>
       <c r="G239" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H239" t="s">
         <v>5</v>
@@ -8446,7 +8459,7 @@
         <v>532</v>
       </c>
       <c r="G240" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H240" t="s">
         <v>7</v>
@@ -8465,7 +8478,7 @@
         <v>533</v>
       </c>
       <c r="G241" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H241" t="s">
         <v>7</v>
@@ -8484,7 +8497,7 @@
         <v>534</v>
       </c>
       <c r="G242" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H242" t="s">
         <v>7</v>
@@ -8503,7 +8516,7 @@
         <v>535</v>
       </c>
       <c r="G243" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H243" t="s">
         <v>7</v>
@@ -8522,7 +8535,7 @@
         <v>532</v>
       </c>
       <c r="G244" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H244" t="s">
         <v>7</v>
@@ -8541,7 +8554,7 @@
         <v>533</v>
       </c>
       <c r="G245" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H245" t="s">
         <v>7</v>
@@ -8560,7 +8573,7 @@
         <v>534</v>
       </c>
       <c r="G246" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H246" t="s">
         <v>7</v>
@@ -8579,7 +8592,7 @@
         <v>532</v>
       </c>
       <c r="G247" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H247" t="s">
         <v>7</v>
@@ -8598,7 +8611,7 @@
         <v>533</v>
       </c>
       <c r="G248" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H248" t="s">
         <v>7</v>
@@ -8617,7 +8630,7 @@
         <v>534</v>
       </c>
       <c r="G249" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H249" t="s">
         <v>7</v>
@@ -8636,7 +8649,7 @@
         <v>532</v>
       </c>
       <c r="G250" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H250" t="s">
         <v>7</v>
@@ -8655,7 +8668,7 @@
         <v>533</v>
       </c>
       <c r="G251" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H251" t="s">
         <v>7</v>
@@ -8674,7 +8687,7 @@
         <v>534</v>
       </c>
       <c r="G252" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H252" t="s">
         <v>7</v>
@@ -9845,6 +9858,9 @@
       </c>
       <c r="H347" t="s">
         <v>0</v>
+      </c>
+      <c r="J347" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -9924,497 +9940,1226 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="14" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="14" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="14" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" style="14" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" style="14" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>480</v>
       </c>
       <c r="C1" t="s">
         <v>540</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>482</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>483</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>484</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>485</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>486</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>487</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>488</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>489</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>490</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>491</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>492</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>493</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>494</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>541</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="S2" s="19"/>
+      <c r="T2" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="9" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>563</v>
+      </c>
       <c r="C4" s="20" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="9" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="D6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="Y6" s="14"/>
+    </row>
+    <row r="7" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="D7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="Y7" s="14"/>
+    </row>
+    <row r="8" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="D8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="D9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="Y9" s="14"/>
+    </row>
+    <row r="10" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="Y11" s="14"/>
+    </row>
+    <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="D13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="Y13" s="14"/>
+    </row>
+    <row r="14" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="D14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="Y14" s="14"/>
+    </row>
+    <row r="15" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="D15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="Y15" s="14"/>
+    </row>
+    <row r="16" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="D16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="Y16" s="14"/>
+    </row>
+    <row r="17" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="D17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="Y17" s="14"/>
+    </row>
+    <row r="18" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B19" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="Y19" s="14"/>
+    </row>
+    <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C20" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="Y20" s="14"/>
+    </row>
+    <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="Y21" s="14"/>
+    </row>
+    <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="20" t="s">
+      <c r="D22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="Y22" s="14"/>
+    </row>
+    <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="20" t="s">
+      <c r="D23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="Y23" s="14"/>
+    </row>
+    <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="9" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="20" t="s">
+      <c r="D24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="Y24" s="14"/>
+    </row>
+    <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="20" t="s">
+      <c r="C25" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="Y25" s="14"/>
+    </row>
+    <row r="26" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="D27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="Y27" s="14"/>
+    </row>
+    <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="B28" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
+      <c r="D28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="Y28" s="14"/>
+    </row>
+    <row r="29" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="Y29" s="14"/>
+    </row>
+    <row r="30" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="D30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="Y30" s="14"/>
+    </row>
+    <row r="31" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="D31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="Y31" s="14"/>
+    </row>
+    <row r="32" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="D32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="Y32" s="14"/>
+    </row>
+    <row r="33" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G33" s="14"/>
+      <c r="H33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="J33" s="14"/>
+      <c r="K33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="M33" s="14"/>
+      <c r="N33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="O33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="P33" s="14"/>
+      <c r="Q33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="R33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="S33" s="14"/>
+      <c r="T33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="U33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="V33" s="14"/>
+      <c r="W33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="X33" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="Y33" s="14"/>
+    </row>
+    <row r="34" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B35" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="Y35" s="14"/>
+    </row>
+    <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="Y36" s="14"/>
+    </row>
+    <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="C37" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="Y37" s="14"/>
+    </row>
+    <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="Y38" s="14"/>
+    </row>
+    <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="Y39" s="14"/>
+    </row>
+    <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="Y40" s="14"/>
+    </row>
+    <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="Y41" s="14"/>
+    </row>
+    <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="C32" s="21" t="s">
+      <c r="D42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="Y42" s="14"/>
+    </row>
+    <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="C43" s="21" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="D43" s="22"/>
+      <c r="G43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="Y43" s="14"/>
+    </row>
+    <row r="44" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B45" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="Y45" s="14"/>
+    </row>
+    <row r="46" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="D46" s="14"/>
+      <c r="E46" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="Y46" s="14"/>
+    </row>
+    <row r="47" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="D47" s="14"/>
+      <c r="E47" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="Y47" s="14"/>
+    </row>
+    <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="Y48" s="14"/>
+    </row>
+    <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="Y49" s="14"/>
+    </row>
+    <row r="50" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="Y50" s="14"/>
+    </row>
+    <row r="51" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="Y51" s="14"/>
+    </row>
+    <row r="52" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="Y52" s="14"/>
+    </row>
+    <row r="53" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="Y53" s="14"/>
+    </row>
+    <row r="54" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B55" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8" t="s">
+      <c r="C55" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="Y55" s="14"/>
+    </row>
+    <row r="56" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8" t="s">
+      <c r="C56" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="F56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="Y56" s="14"/>
+    </row>
+    <row r="57" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C57" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="F57" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="Y57" s="14"/>
+    </row>
+    <row r="58" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D58" s="14"/>
+      <c r="F58" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="I58" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="Y58" s="14"/>
+    </row>
+    <row r="59" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D59" s="14"/>
+      <c r="F59" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="I59" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="Y59" s="14"/>
+    </row>
+    <row r="60" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D60" s="14"/>
+      <c r="F60" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="I60" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="Y60" s="14"/>
+    </row>
+    <row r="61" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="V61" s="14"/>
+      <c r="Y61" s="14"/>
+    </row>
+    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="Y62" s="14"/>
+    </row>
+    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-    </row>
+      <c r="D63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="Y63" s="14"/>
+    </row>
+    <row r="64" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\Gamelab1-Jaar2\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingo\Documents\school\DesignProcess\Gamelab 1 Jaar 2\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="590">
   <si>
     <t>Arne</t>
   </si>
@@ -1792,10 +1792,10 @@
     <t>SmokeBomb.cs</t>
   </si>
   <si>
-    <t>GrapplingHook? SASCHA</t>
-  </si>
-  <si>
     <t>2D_TXT_STAIRWALL</t>
+  </si>
+  <si>
+    <t>BGM_level2</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1803,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1927,7 +1927,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1951,12 +1951,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1977,9 +1977,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2017,7 +2017,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2089,7 +2089,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2247,15 +2247,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="88" max="88" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="88" max="88" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
@@ -4271,14 +4271,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9942,32 +9942,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="14" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" style="14" customWidth="1"/>
-    <col min="11" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="14" customWidth="1"/>
-    <col min="14" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.375" style="14" customWidth="1"/>
+    <col min="11" max="12" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.75" style="14" customWidth="1"/>
+    <col min="14" max="15" width="16.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="14" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="14" customWidth="1"/>
-    <col min="20" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" style="14" customWidth="1"/>
-    <col min="23" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.28515625" style="14" customWidth="1"/>
+    <col min="23" max="24" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.25" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -10324,9 +10324,6 @@
         <v>568</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="20" t="s">
-        <v>588</v>
-      </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
       <c r="M21" s="14"/>
@@ -10402,8 +10399,23 @@
       <c r="B27" s="9" t="s">
         <v>574</v>
       </c>
+      <c r="C27" s="20" t="s">
+        <v>589</v>
+      </c>
       <c r="D27" s="14"/>
+      <c r="E27" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>589</v>
+      </c>
       <c r="G27" s="14"/>
+      <c r="H27" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>402</v>
+      </c>
       <c r="J27" s="14"/>
       <c r="M27" s="14"/>
       <c r="P27" s="14"/>
@@ -10846,7 +10858,7 @@
       <c r="A49" s="7"/>
       <c r="D49" s="14"/>
       <c r="E49" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>517</v>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="594">
   <si>
     <t>Arne</t>
   </si>
@@ -1796,6 +1796,18 @@
   </si>
   <si>
     <t>BGM_level2</t>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
+  </si>
+  <si>
+    <t>Polishing</t>
+  </si>
+  <si>
+    <t>Extra Features</t>
+  </si>
+  <si>
+    <t>Building</t>
   </si>
 </sst>
 </file>
@@ -9942,8 +9954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10417,10 +10429,40 @@
         <v>402</v>
       </c>
       <c r="J27" s="14"/>
+      <c r="K27" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>423</v>
+      </c>
       <c r="M27" s="14"/>
+      <c r="N27" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="P27" s="14"/>
+      <c r="Q27" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>537</v>
+      </c>
       <c r="S27" s="14"/>
+      <c r="T27" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="U27" s="20" t="s">
+        <v>422</v>
+      </c>
       <c r="V27" s="14"/>
+      <c r="W27" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="X27" s="20" t="s">
+        <v>593</v>
+      </c>
       <c r="Y27" s="14"/>
     </row>
     <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -10440,6 +10482,9 @@
       <c r="P28" s="14"/>
       <c r="S28" s="14"/>
       <c r="V28" s="14"/>
+      <c r="W28" s="20" t="s">
+        <v>591</v>
+      </c>
       <c r="Y28" s="14"/>
     </row>
     <row r="29" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -10454,6 +10499,9 @@
       <c r="P29" s="14"/>
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
+      <c r="W29" s="20" t="s">
+        <v>592</v>
+      </c>
       <c r="Y29" s="14"/>
     </row>
     <row r="30" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="608">
   <si>
     <t>Arne</t>
   </si>
@@ -598,15 +598,6 @@
     <t>3D_ENV_TREE3</t>
   </si>
   <si>
-    <t>4U_ENV_TREE1</t>
-  </si>
-  <si>
-    <t>4U_ENV_TREE2</t>
-  </si>
-  <si>
-    <t>4U_ENV_TREE3</t>
-  </si>
-  <si>
     <t>Bush</t>
   </si>
   <si>
@@ -673,15 +664,9 @@
     <t>Terrain</t>
   </si>
   <si>
-    <t>2D_TXT_TERRAIN</t>
-  </si>
-  <si>
     <t>3D_ENV_TERRAIN</t>
   </si>
   <si>
-    <t>4U_ENV_TERRAIN</t>
-  </si>
-  <si>
     <t>Background 1</t>
   </si>
   <si>
@@ -727,15 +712,9 @@
     <t>3D_ENV_FALLTREETRUNK</t>
   </si>
   <si>
-    <t>4U_ENV_FALLTREETRUNK</t>
-  </si>
-  <si>
     <t>Tree Trunk</t>
   </si>
   <si>
-    <t>4U_ENV_TREETRUNK</t>
-  </si>
-  <si>
     <t>3D_ENV_TREETRUNK</t>
   </si>
   <si>
@@ -874,9 +853,6 @@
     <t>4U_ENV_LANTERN</t>
   </si>
   <si>
-    <t xml:space="preserve">Terrain </t>
-  </si>
-  <si>
     <t>Bag</t>
   </si>
   <si>
@@ -1246,9 +1222,6 @@
     <t>LoadController.cs</t>
   </si>
   <si>
-    <t>PickUpHeartsScript.cs</t>
-  </si>
-  <si>
     <t>SteppingStones.cs</t>
   </si>
   <si>
@@ -1537,9 +1510,6 @@
     <t>2D_TXT_CRACKWALL</t>
   </si>
   <si>
-    <t>In Trello</t>
-  </si>
-  <si>
     <t>3D_ENV_CRACKWALL</t>
   </si>
   <si>
@@ -1651,12 +1621,6 @@
     <t>HeartScript.cs</t>
   </si>
   <si>
-    <t>2D_TXT_FALLENTREETRUNK</t>
-  </si>
-  <si>
-    <t>3D_ENV_FALLENTREETRUNK</t>
-  </si>
-  <si>
     <t xml:space="preserve">2D_TXT_TREE1 </t>
   </si>
   <si>
@@ -1666,9 +1630,6 @@
     <t>PRESENTATIE</t>
   </si>
   <si>
-    <t>DONE</t>
-  </si>
-  <si>
     <t xml:space="preserve">StatsManager.cs </t>
   </si>
   <si>
@@ -1780,9 +1741,6 @@
     <t>4U_PRP_BUREAU</t>
   </si>
   <si>
-    <t>LEFTOVERS</t>
-  </si>
-  <si>
     <t>2D_TXT_GRAPPLINGHOOK</t>
   </si>
   <si>
@@ -1798,19 +1756,100 @@
     <t>HUD</t>
   </si>
   <si>
-    <t>A-Priority</t>
-  </si>
-  <si>
-    <t>B-Priority</t>
-  </si>
-  <si>
-    <t>C-Priority</t>
-  </si>
-  <si>
     <t>presentatie</t>
   </si>
   <si>
     <t>IntroCutScene.cs</t>
+  </si>
+  <si>
+    <t>4U_INT_BLADE</t>
+  </si>
+  <si>
+    <t>2D_TXT_HBLADE</t>
+  </si>
+  <si>
+    <t>4U_INT_HBLADE</t>
+  </si>
+  <si>
+    <t>In planning</t>
+  </si>
+  <si>
+    <t>9P_PLYR</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>9P_ENEMY</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>9P_ENEMY_HIT</t>
+  </si>
+  <si>
+    <t>9P_ENEMY_DEATH</t>
+  </si>
+  <si>
+    <t>DUST FROM FEET WHEN RUNNING</t>
+  </si>
+  <si>
+    <t>Footstep dust</t>
+  </si>
+  <si>
+    <t>9P_ENEMY_FOOTDUST</t>
+  </si>
+  <si>
+    <t>Pick up glow</t>
+  </si>
+  <si>
+    <t>9P_ENV_PCKUPGLOW</t>
+  </si>
+  <si>
+    <t>Destructible dust</t>
+  </si>
+  <si>
+    <t>9P_ENV_DESTRUCTDUST</t>
+  </si>
+  <si>
+    <t>Fireflies</t>
+  </si>
+  <si>
+    <t>9P_ENV_FIREFLIES</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Slash Attack</t>
+  </si>
+  <si>
+    <t>Jump Landing</t>
+  </si>
+  <si>
+    <t>9P_PLYR_HIT</t>
+  </si>
+  <si>
+    <t>9P_PLYR_DASH</t>
+  </si>
+  <si>
+    <t>9P_PLYR_SLASHATTCK</t>
+  </si>
+  <si>
+    <t>9P_PLYR_SMOKEBOMB</t>
+  </si>
+  <si>
+    <t>9P_PLYR_JUMPLANDING</t>
+  </si>
+  <si>
+    <t>Crystals in cave</t>
+  </si>
+  <si>
+    <t>Bureau</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1896,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1932,12 +1971,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6666FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1956,7 +1989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1981,8 +2014,7 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1992,8 +2024,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FF6666FF"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2309,7 +2341,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="3">
@@ -2759,13 +2791,13 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="CJ2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="EU2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
@@ -2776,7 +2808,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2788,18 +2820,18 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="CJ3" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="EU3" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B4" s="2">
         <v>0.61458333333333337</v>
@@ -2817,13 +2849,13 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="CJ4" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="EU4" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -2834,7 +2866,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -2846,22 +2878,22 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="CJ5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="EU5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="CJ6" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="EU6" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
@@ -2869,10 +2901,10 @@
         <v>4</v>
       </c>
       <c r="CJ7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="EU7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
@@ -2895,13 +2927,13 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="CJ8" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="EU8" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
@@ -2924,13 +2956,13 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="CJ9" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="EU9" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
@@ -2941,7 +2973,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -2953,13 +2985,13 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="CJ10" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="EU10" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
@@ -2982,7 +3014,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="J11" s="3">
         <v>42618</v>
@@ -3431,7 +3463,7 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
@@ -3462,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>11</v>
@@ -3534,7 +3566,7 @@
         <v>11</v>
       </c>
       <c r="CJ12" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="CN12" s="1" t="s">
         <v>11</v>
@@ -3621,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="EU12" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:151" x14ac:dyDescent="0.25">
@@ -3632,7 +3664,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -3644,7 +3676,7 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>12</v>
@@ -3653,18 +3685,18 @@
         <v>13</v>
       </c>
       <c r="CJ13" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="ES13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="EU13" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B14" s="2">
         <v>0.61458333333333337</v>
@@ -3682,58 +3714,58 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="X14" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>457</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>458</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>459</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>460</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>461</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>462</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>463</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>464</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>533</v>
+      </c>
+      <c r="CP14" t="s">
         <v>465</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="CW14" t="s">
         <v>466</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="DD14" t="s">
         <v>467</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="DK14" t="s">
         <v>468</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="EF14" t="s">
         <v>469</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="EM14" t="s">
         <v>470</v>
       </c>
-      <c r="BU14" t="s">
-        <v>471</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>472</v>
-      </c>
-      <c r="CI14" t="s">
-        <v>473</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>545</v>
-      </c>
-      <c r="CP14" t="s">
-        <v>474</v>
-      </c>
-      <c r="CW14" t="s">
-        <v>475</v>
-      </c>
-      <c r="DD14" t="s">
-        <v>476</v>
-      </c>
-      <c r="DK14" t="s">
-        <v>477</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>478</v>
-      </c>
-      <c r="EM14" t="s">
-        <v>479</v>
-      </c>
       <c r="EU14" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
@@ -3744,7 +3776,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -3756,433 +3788,433 @@
         <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="J15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="K15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="L15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="N15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="O15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="P15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="Q15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="R15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="S15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="T15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="U15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="V15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="W15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="X15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="Y15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="Z15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AA15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AB15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AC15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AD15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AE15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AF15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AG15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AH15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AI15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AJ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AK15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AL15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AM15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AN15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AO15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AP15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AQ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AR15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AS15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AT15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AU15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AV15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AW15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AX15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AY15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AZ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BA15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BB15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BC15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BD15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BE15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BF15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BG15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BH15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BI15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BJ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BK15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BL15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BM15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BN15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BO15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BP15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BQ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BR15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BS15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BT15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BU15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BV15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BW15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BX15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BY15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="BZ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CA15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CB15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CC15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CD15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CE15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CF15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CG15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CH15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CI15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CJ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CK15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CL15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CM15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CN15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CO15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CP15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CQ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CR15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CS15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CT15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CU15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CV15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CW15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CX15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CY15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="CZ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DA15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DB15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DC15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DD15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DE15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DF15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DG15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DH15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DI15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DJ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DK15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DL15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DM15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DN15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DO15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DP15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DQ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DR15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DS15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DT15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DU15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DV15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DW15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DX15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DY15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="DZ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EA15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EB15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EC15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="ED15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EE15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EF15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EG15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EH15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EI15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EJ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EK15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EL15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EM15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EN15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EO15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EP15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EQ15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="ER15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="ES15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="ET15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="EU15" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:151" x14ac:dyDescent="0.25">
@@ -4197,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -4234,7 +4266,7 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="Q18" t="s">
         <v>7</v>
@@ -4260,7 +4292,7 @@
         <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -4271,7 +4303,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -4283,7 +4315,7 @@
         <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4294,10 +4326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J347"/>
+  <dimension ref="A1:J359"/>
   <sheetViews>
-    <sheetView topLeftCell="A306" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H331" sqref="H331"/>
+    <sheetView topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4305,11 +4337,12 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4326,16 +4359,16 @@
         <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="I1" t="s">
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4362,7 +4395,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -4378,10 +4411,10 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G5" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -4400,7 +4433,7 @@
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -4419,7 +4452,7 @@
         <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -4438,7 +4471,7 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -4454,10 +4487,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="G9" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -4476,7 +4509,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -4495,7 +4528,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
@@ -4514,7 +4547,7 @@
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -4533,7 +4566,7 @@
         <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -4552,7 +4585,7 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -4571,7 +4604,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -4590,7 +4623,7 @@
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -4609,7 +4642,7 @@
         <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -4628,7 +4661,7 @@
         <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -4647,7 +4680,7 @@
         <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -4666,7 +4699,7 @@
         <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -4685,7 +4718,7 @@
         <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
@@ -4704,7 +4737,7 @@
         <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -4723,7 +4756,7 @@
         <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -4739,10 +4772,10 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G24" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -4758,10 +4791,10 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G25" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -4780,7 +4813,7 @@
         <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -4799,7 +4832,7 @@
         <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -4818,7 +4851,7 @@
         <v>154</v>
       </c>
       <c r="G28" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -4831,16 +4864,16 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D29" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E29" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G29" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
@@ -4859,7 +4892,7 @@
         <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -4878,7 +4911,7 @@
         <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H31" t="s">
         <v>6</v>
@@ -4897,7 +4930,7 @@
         <v>162</v>
       </c>
       <c r="G32" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -4916,7 +4949,7 @@
         <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -4935,7 +4968,7 @@
         <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
@@ -4954,7 +4987,7 @@
         <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
@@ -4973,7 +5006,7 @@
         <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H36" t="s">
         <v>6</v>
@@ -4992,7 +5025,7 @@
         <v>184</v>
       </c>
       <c r="G37" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
@@ -5011,7 +5044,7 @@
         <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -5030,7 +5063,7 @@
         <v>186</v>
       </c>
       <c r="G39" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H39" t="s">
         <v>7</v>
@@ -5043,13 +5076,13 @@
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G40" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H40" t="s">
         <v>6</v>
@@ -5062,13 +5095,13 @@
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
@@ -5081,13 +5114,13 @@
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G42" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H42" t="s">
         <v>6</v>
@@ -5100,13 +5133,13 @@
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H43" t="s">
         <v>7</v>
@@ -5119,13 +5152,13 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G44" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
@@ -5138,16 +5171,16 @@
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>564</v>
       </c>
       <c r="G45" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H45" t="s">
-        <v>419</v>
+        <v>5</v>
       </c>
       <c r="J45" t="s">
         <v>3</v>
@@ -5157,13 +5190,13 @@
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="G46" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -5176,13 +5209,13 @@
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G47" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
@@ -5195,16 +5228,16 @@
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>579</v>
+        <v>217</v>
       </c>
       <c r="G48" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
         <v>3</v>
@@ -5214,13 +5247,13 @@
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" t="s">
         <v>221</v>
       </c>
-      <c r="D49" t="s">
-        <v>222</v>
-      </c>
       <c r="G49" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H49" t="s">
         <v>6</v>
@@ -5233,16 +5266,16 @@
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" t="s">
         <v>225</v>
       </c>
-      <c r="D50" t="s">
-        <v>226</v>
-      </c>
       <c r="G50" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J50" t="s">
         <v>3</v>
@@ -5252,13 +5285,13 @@
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D51" t="s">
         <v>230</v>
       </c>
       <c r="G51" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
@@ -5271,13 +5304,13 @@
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="G52" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
@@ -5290,13 +5323,13 @@
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="D53" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="G53" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
@@ -5309,13 +5342,13 @@
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H54" t="s">
         <v>7</v>
@@ -5334,10 +5367,10 @@
         <v>244</v>
       </c>
       <c r="G55" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J55" t="s">
         <v>3</v>
@@ -5347,13 +5380,13 @@
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" t="s">
         <v>250</v>
       </c>
-      <c r="D56" t="s">
-        <v>251</v>
-      </c>
       <c r="G56" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H56" t="s">
         <v>5</v>
@@ -5366,16 +5399,16 @@
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D57" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G57" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J57" t="s">
         <v>3</v>
@@ -5385,13 +5418,13 @@
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G58" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H58" t="s">
         <v>7</v>
@@ -5404,13 +5437,13 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G59" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
@@ -5423,13 +5456,13 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G60" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H60" t="s">
         <v>7</v>
@@ -5442,16 +5475,16 @@
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G61" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J61" t="s">
         <v>3</v>
@@ -5461,16 +5494,16 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G62" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J62" t="s">
         <v>3</v>
@@ -5480,13 +5513,13 @@
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D63" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G63" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H63" t="s">
         <v>7</v>
@@ -5499,16 +5532,16 @@
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G64" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
         <v>3</v>
@@ -5518,16 +5551,16 @@
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D65" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G65" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J65" t="s">
         <v>3</v>
@@ -5537,13 +5570,13 @@
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G66" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H66" t="s">
         <v>6</v>
@@ -5556,16 +5589,16 @@
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G67" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J67" t="s">
         <v>3</v>
@@ -5575,13 +5608,13 @@
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D68" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G68" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -5594,16 +5627,19 @@
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="E69" t="s">
+        <v>290</v>
       </c>
       <c r="G69" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J69" t="s">
         <v>3</v>
@@ -5613,19 +5649,16 @@
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
-      </c>
-      <c r="E70" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G70" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J70" t="s">
         <v>3</v>
@@ -5635,16 +5668,16 @@
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G71" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J71" t="s">
         <v>3</v>
@@ -5654,13 +5687,13 @@
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D72" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G72" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -5673,13 +5706,13 @@
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D73" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G73" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -5692,13 +5725,13 @@
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D74" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G74" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -5711,13 +5744,13 @@
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G75" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H75" t="s">
         <v>5</v>
@@ -5730,53 +5763,53 @@
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D76" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G76" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>360</v>
+      </c>
       <c r="B77" s="14"/>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="D77" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="G77" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J77" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>368</v>
-      </c>
+      <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D78" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G78" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H78" t="s">
         <v>5</v>
@@ -5789,16 +5822,16 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" t="s">
-        <v>373</v>
+        <v>472</v>
       </c>
       <c r="D79" t="s">
-        <v>374</v>
+        <v>475</v>
       </c>
       <c r="G79" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J79" t="s">
         <v>3</v>
@@ -5808,16 +5841,16 @@
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D80" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G80" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J80" t="s">
         <v>3</v>
@@ -5827,16 +5860,16 @@
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" t="s">
-        <v>482</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
-        <v>483</v>
+        <v>152</v>
       </c>
       <c r="G81" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J81" t="s">
         <v>3</v>
@@ -5846,13 +5879,13 @@
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G82" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H82" t="s">
         <v>7</v>
@@ -5865,19 +5898,10 @@
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>607</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
-      </c>
-      <c r="G83" t="s">
-        <v>480</v>
-      </c>
-      <c r="H83" t="s">
-        <v>7</v>
-      </c>
-      <c r="J83" t="s">
-        <v>3</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -5908,7 +5932,7 @@
         <v>65</v>
       </c>
       <c r="G87" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H87" t="s">
         <v>5</v>
@@ -5927,7 +5951,7 @@
         <v>66</v>
       </c>
       <c r="G88" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H88" t="s">
         <v>5</v>
@@ -5946,10 +5970,13 @@
         <v>67</v>
       </c>
       <c r="G89" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H89" t="s">
         <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -5962,10 +5989,13 @@
         <v>77</v>
       </c>
       <c r="G90" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H90" t="s">
         <v>7</v>
+      </c>
+      <c r="J90" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -5978,7 +6008,7 @@
         <v>87</v>
       </c>
       <c r="G91" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H91" t="s">
         <v>7</v>
@@ -5997,10 +6027,13 @@
         <v>98</v>
       </c>
       <c r="G92" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H92" t="s">
         <v>6</v>
+      </c>
+      <c r="J92" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -6013,10 +6046,13 @@
         <v>102</v>
       </c>
       <c r="G93" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H93" t="s">
         <v>6</v>
+      </c>
+      <c r="J93" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -6029,10 +6065,13 @@
         <v>106</v>
       </c>
       <c r="G94" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H94" t="s">
         <v>6</v>
+      </c>
+      <c r="J94" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -6045,10 +6084,13 @@
         <v>111</v>
       </c>
       <c r="G95" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H95" t="s">
         <v>6</v>
+      </c>
+      <c r="J95" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -6061,7 +6103,7 @@
         <v>115</v>
       </c>
       <c r="G96" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H96" t="s">
         <v>6</v>
@@ -6080,7 +6122,7 @@
         <v>121</v>
       </c>
       <c r="G97" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H97" t="s">
         <v>6</v>
@@ -6099,10 +6141,13 @@
         <v>125</v>
       </c>
       <c r="G98" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H98" t="s">
         <v>6</v>
+      </c>
+      <c r="J98" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -6115,7 +6160,7 @@
         <v>142</v>
       </c>
       <c r="G99" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H99" t="s">
         <v>7</v>
@@ -6134,7 +6179,7 @@
         <v>163</v>
       </c>
       <c r="G100" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H100" t="s">
         <v>7</v>
@@ -6153,7 +6198,7 @@
         <v>167</v>
       </c>
       <c r="G101" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H101" t="s">
         <v>5</v>
@@ -6172,7 +6217,7 @@
         <v>171</v>
       </c>
       <c r="G102" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H102" t="s">
         <v>5</v>
@@ -6184,46 +6229,46 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
+      <c r="C103" t="s">
+        <v>607</v>
+      </c>
+      <c r="D103" t="s">
+        <v>568</v>
+      </c>
+      <c r="G103" t="s">
+        <v>477</v>
+      </c>
+      <c r="H103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
-      <c r="B104" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C104" t="s">
-        <v>34</v>
-      </c>
+      <c r="B104" s="14"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
+      <c r="B105" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C105" t="s">
-        <v>60</v>
-      </c>
-      <c r="D105" t="s">
-        <v>504</v>
-      </c>
-      <c r="G105" t="s">
-        <v>480</v>
-      </c>
-      <c r="H105" t="s">
-        <v>5</v>
-      </c>
-      <c r="J105" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>54</v>
+        <v>494</v>
       </c>
       <c r="G106" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H106" t="s">
         <v>5</v>
@@ -6236,13 +6281,13 @@
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G107" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H107" t="s">
         <v>5</v>
@@ -6255,13 +6300,13 @@
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D108" t="s">
-        <v>506</v>
+        <v>72</v>
       </c>
       <c r="G108" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H108" t="s">
         <v>5</v>
@@ -6274,13 +6319,13 @@
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="G109" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H109" t="s">
         <v>5</v>
@@ -6293,16 +6338,16 @@
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D110" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J110" t="s">
         <v>3</v>
@@ -6312,16 +6357,16 @@
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D111" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="G111" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J111" t="s">
         <v>3</v>
@@ -6331,13 +6376,13 @@
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D112" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G112" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H112" t="s">
         <v>5</v>
@@ -6350,13 +6395,13 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D113" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="G113" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H113" t="s">
         <v>5</v>
@@ -6369,16 +6414,16 @@
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D114" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G114" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J114" t="s">
         <v>3</v>
@@ -6388,48 +6433,54 @@
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G115" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H115" t="s">
         <v>7</v>
+      </c>
+      <c r="J115" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G116" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H116" t="s">
         <v>7</v>
+      </c>
+      <c r="J116" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D117" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G117" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J117" t="s">
         <v>3</v>
@@ -6439,13 +6490,13 @@
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D118" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G118" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H118" t="s">
         <v>6</v>
@@ -6458,35 +6509,35 @@
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G119" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H119" t="s">
         <v>6</v>
+      </c>
+      <c r="J119" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D120" t="s">
-        <v>210</v>
-      </c>
-      <c r="E120" t="s">
-        <v>512</v>
+        <v>200</v>
       </c>
       <c r="G120" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J120" t="s">
         <v>3</v>
@@ -6496,35 +6547,41 @@
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" t="s">
+        <v>203</v>
+      </c>
+      <c r="D121" t="s">
         <v>207</v>
       </c>
-      <c r="D121" t="s">
-        <v>211</v>
-      </c>
       <c r="E121" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="G121" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H121" t="s">
         <v>7</v>
+      </c>
+      <c r="J121" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D122" t="s">
-        <v>216</v>
+        <v>208</v>
+      </c>
+      <c r="E122" t="s">
+        <v>503</v>
       </c>
       <c r="G122" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H122" t="s">
-        <v>419</v>
+        <v>7</v>
       </c>
       <c r="J122" t="s">
         <v>3</v>
@@ -6534,16 +6591,16 @@
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D123" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G123" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H123" t="s">
-        <v>6</v>
+        <v>410</v>
       </c>
       <c r="J123" t="s">
         <v>3</v>
@@ -6553,13 +6610,13 @@
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D124" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G124" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H124" t="s">
         <v>6</v>
@@ -6572,16 +6629,16 @@
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D125" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G125" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J125" t="s">
         <v>3</v>
@@ -6591,29 +6648,32 @@
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D126" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G126" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H126" t="s">
         <v>7</v>
+      </c>
+      <c r="J126" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="D127" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="G127" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H127" t="s">
         <v>7</v>
@@ -6626,16 +6686,16 @@
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="D128" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="G128" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H128" t="s">
-        <v>419</v>
+        <v>7</v>
       </c>
       <c r="J128" t="s">
         <v>3</v>
@@ -6645,16 +6705,16 @@
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D129" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G129" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H129" t="s">
-        <v>5</v>
+        <v>410</v>
       </c>
       <c r="J129" t="s">
         <v>3</v>
@@ -6664,13 +6724,13 @@
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D130" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G130" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H130" t="s">
         <v>5</v>
@@ -6683,32 +6743,35 @@
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D131" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="G131" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H131" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J131" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="D132" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G132" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J132" t="s">
         <v>3</v>
@@ -6718,35 +6781,38 @@
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="D133" t="s">
-        <v>299</v>
-      </c>
-      <c r="E133" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="G133" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H133" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J133" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="D134" t="s">
-        <v>304</v>
+        <v>291</v>
+      </c>
+      <c r="E134" t="s">
+        <v>290</v>
       </c>
       <c r="G134" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J134" t="s">
         <v>3</v>
@@ -6755,46 +6821,46 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
+      <c r="C135" t="s">
+        <v>294</v>
+      </c>
+      <c r="D135" t="s">
+        <v>296</v>
+      </c>
+      <c r="G135" t="s">
+        <v>471</v>
+      </c>
+      <c r="H135" t="s">
+        <v>6</v>
+      </c>
+      <c r="J135" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
-      <c r="B136" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" t="s">
-        <v>43</v>
-      </c>
+      <c r="B136" s="14"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
+      <c r="B137" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C137" t="s">
-        <v>153</v>
-      </c>
-      <c r="D137" t="s">
-        <v>514</v>
-      </c>
-      <c r="G137" t="s">
-        <v>480</v>
-      </c>
-      <c r="H137" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>381</v>
+        <v>153</v>
       </c>
       <c r="D138" t="s">
-        <v>384</v>
-      </c>
-      <c r="E138" t="s">
-        <v>382</v>
+        <v>504</v>
       </c>
       <c r="G138" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H138" t="s">
         <v>7</v>
@@ -6807,16 +6873,19 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="D139" t="s">
-        <v>159</v>
+        <v>376</v>
+      </c>
+      <c r="E139" t="s">
+        <v>374</v>
       </c>
       <c r="G139" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J139" t="s">
         <v>3</v>
@@ -6826,13 +6895,13 @@
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G140" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H140" t="s">
         <v>6</v>
@@ -6845,13 +6914,13 @@
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G141" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H141" t="s">
         <v>6</v>
@@ -6864,16 +6933,16 @@
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="D142" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="G142" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J142" t="s">
         <v>3</v>
@@ -6883,16 +6952,16 @@
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="D143" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="G143" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J143" t="s">
         <v>3</v>
@@ -6902,13 +6971,13 @@
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D144" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G144" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H144" t="s">
         <v>5</v>
@@ -6920,46 +6989,46 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
+      <c r="C145" t="s">
+        <v>279</v>
+      </c>
+      <c r="D145" t="s">
+        <v>281</v>
+      </c>
+      <c r="G145" t="s">
+        <v>471</v>
+      </c>
+      <c r="H145" t="s">
+        <v>5</v>
+      </c>
+      <c r="J145" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
-      <c r="B146" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C146" t="s">
-        <v>140</v>
-      </c>
+      <c r="B146" s="14"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
+      <c r="B147" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C147" t="s">
-        <v>128</v>
-      </c>
-      <c r="D147" t="s">
-        <v>133</v>
-      </c>
-      <c r="G147" t="s">
-        <v>480</v>
-      </c>
-      <c r="H147" t="s">
-        <v>6</v>
-      </c>
-      <c r="J147" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D148" t="s">
-        <v>461</v>
+        <v>133</v>
       </c>
       <c r="G148" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H148" t="s">
         <v>6</v>
@@ -6972,16 +7041,16 @@
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D149" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G149" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J149" t="s">
         <v>3</v>
@@ -6991,32 +7060,35 @@
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="D150" t="s">
-        <v>245</v>
+        <v>451</v>
       </c>
       <c r="G150" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H150" t="s">
         <v>7</v>
+      </c>
+      <c r="J150" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" t="s">
-        <v>373</v>
+        <v>236</v>
       </c>
       <c r="D151" t="s">
-        <v>375</v>
+        <v>238</v>
       </c>
       <c r="G151" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J151" t="s">
         <v>3</v>
@@ -7025,57 +7097,57 @@
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
-    </row>
-    <row r="153" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
+      <c r="C152" t="s">
+        <v>365</v>
+      </c>
+      <c r="D152" t="s">
+        <v>367</v>
+      </c>
+      <c r="G152" t="s">
+        <v>471</v>
+      </c>
+      <c r="H152" t="s">
+        <v>5</v>
+      </c>
+      <c r="J152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+    </row>
+    <row r="154" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B154" s="8" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
-      <c r="B154" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
+      <c r="B155" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C155" t="s">
-        <v>56</v>
-      </c>
-      <c r="D155" t="s">
-        <v>68</v>
-      </c>
-      <c r="G155" t="s">
-        <v>487</v>
-      </c>
-      <c r="H155" t="s">
-        <v>5</v>
-      </c>
-      <c r="J155" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D156" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G156" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J156" t="s">
         <v>3</v>
@@ -7085,13 +7157,13 @@
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D157" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G157" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H157" t="s">
         <v>7</v>
@@ -7104,16 +7176,16 @@
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D158" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G158" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J158" t="s">
         <v>3</v>
@@ -7123,16 +7195,16 @@
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D159" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G159" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J159" t="s">
         <v>3</v>
@@ -7142,13 +7214,13 @@
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D160" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G160" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H160" t="s">
         <v>6</v>
@@ -7161,13 +7233,13 @@
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D161" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G161" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H161" t="s">
         <v>6</v>
@@ -7180,13 +7252,13 @@
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D162" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G162" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H162" t="s">
         <v>6</v>
@@ -7199,13 +7271,13 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D163" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G163" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H163" t="s">
         <v>6</v>
@@ -7218,13 +7290,13 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D164" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G164" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H164" t="s">
         <v>6</v>
@@ -7237,13 +7309,13 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D165" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G165" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H165" t="s">
         <v>6</v>
@@ -7256,16 +7328,16 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D166" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G166" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J166" t="s">
         <v>3</v>
@@ -7275,13 +7347,13 @@
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D167" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G167" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H167" t="s">
         <v>7</v>
@@ -7294,16 +7366,16 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D168" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G168" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J168" t="s">
         <v>3</v>
@@ -7313,13 +7385,13 @@
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D169" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G169" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H169" t="s">
         <v>5</v>
@@ -7331,65 +7403,65 @@
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
+      <c r="C170" t="s">
+        <v>169</v>
+      </c>
+      <c r="D170" t="s">
+        <v>172</v>
+      </c>
+      <c r="G170" t="s">
+        <v>477</v>
+      </c>
+      <c r="H170" t="s">
+        <v>5</v>
+      </c>
+      <c r="J170" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
-      <c r="B171" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B171" s="14"/>
       <c r="C171" t="s">
-        <v>48</v>
+        <v>607</v>
+      </c>
+      <c r="D171" t="s">
+        <v>570</v>
+      </c>
+      <c r="G171" t="s">
+        <v>477</v>
+      </c>
+      <c r="H171" t="s">
+        <v>5</v>
+      </c>
+      <c r="J171" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
-      <c r="C172" t="s">
-        <v>60</v>
-      </c>
-      <c r="D172" t="s">
-        <v>505</v>
-      </c>
-      <c r="G172" t="s">
-        <v>480</v>
-      </c>
-      <c r="H172" t="s">
-        <v>5</v>
-      </c>
-      <c r="J172" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
-      <c r="B173" s="14"/>
+      <c r="B173" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C173" t="s">
-        <v>52</v>
-      </c>
-      <c r="D173" t="s">
-        <v>70</v>
-      </c>
-      <c r="G173" t="s">
-        <v>480</v>
-      </c>
-      <c r="H173" t="s">
-        <v>5</v>
-      </c>
-      <c r="J173" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D174" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G174" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H174" t="s">
         <v>5</v>
@@ -7398,17 +7470,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D175" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G175" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H175" t="s">
         <v>5</v>
@@ -7421,13 +7493,13 @@
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D176" t="s">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="G176" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H176" t="s">
         <v>5</v>
@@ -7440,13 +7512,13 @@
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="D177" t="s">
-        <v>508</v>
+        <v>74</v>
       </c>
       <c r="G177" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H177" t="s">
         <v>5</v>
@@ -7459,16 +7531,16 @@
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D178" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="G178" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J178" t="s">
         <v>3</v>
@@ -7478,13 +7550,13 @@
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D179" t="s">
-        <v>150</v>
+        <v>498</v>
       </c>
       <c r="G179" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H179" t="s">
         <v>5</v>
@@ -7497,16 +7569,16 @@
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="D180" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="G180" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J180" t="s">
         <v>3</v>
@@ -7516,16 +7588,16 @@
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D181" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G181" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J181" t="s">
         <v>3</v>
@@ -7535,16 +7607,16 @@
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D182" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G182" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J182" t="s">
         <v>3</v>
@@ -7554,16 +7626,16 @@
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D183" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G183" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J183" t="s">
         <v>3</v>
@@ -7573,13 +7645,13 @@
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D184" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G184" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H184" t="s">
         <v>6</v>
@@ -7592,13 +7664,13 @@
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D185" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G185" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H185" t="s">
         <v>6</v>
@@ -7611,16 +7683,16 @@
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D186" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G186" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J186" t="s">
         <v>3</v>
@@ -7630,13 +7702,13 @@
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
+        <v>204</v>
+      </c>
+      <c r="D187" t="s">
         <v>206</v>
       </c>
-      <c r="D187" t="s">
-        <v>208</v>
-      </c>
       <c r="G187" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H187" t="s">
         <v>7</v>
@@ -7649,16 +7721,16 @@
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D188" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G188" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="H188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J188" t="s">
         <v>3</v>
@@ -7668,16 +7740,16 @@
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D189" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G189" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H189" t="s">
-        <v>419</v>
+        <v>6</v>
       </c>
       <c r="J189" t="s">
         <v>3</v>
@@ -7687,16 +7759,16 @@
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="D190" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="G190" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J190" t="s">
         <v>3</v>
@@ -7706,16 +7778,16 @@
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D191" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="G191" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J191" t="s">
         <v>3</v>
@@ -7725,16 +7797,16 @@
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D192" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="G192" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H192" t="s">
-        <v>419</v>
+        <v>5</v>
       </c>
       <c r="J192" t="s">
         <v>3</v>
@@ -7744,13 +7816,13 @@
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="D193" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="G193" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H193" t="s">
         <v>7</v>
@@ -7763,16 +7835,16 @@
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D194" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="G194" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J194" t="s">
         <v>3</v>
@@ -7782,16 +7854,19 @@
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="D195" t="s">
-        <v>253</v>
+        <v>293</v>
+      </c>
+      <c r="E195" t="s">
+        <v>290</v>
       </c>
       <c r="G195" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J195" t="s">
         <v>3</v>
@@ -7801,16 +7876,16 @@
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="D196" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="G196" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J196" t="s">
         <v>3</v>
@@ -7819,71 +7894,52 @@
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
-      <c r="C197" t="s">
-        <v>264</v>
-      </c>
-      <c r="D197" t="s">
-        <v>267</v>
-      </c>
-      <c r="G197" t="s">
-        <v>487</v>
-      </c>
-      <c r="H197" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
+      <c r="B198" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C198" t="s">
-        <v>278</v>
-      </c>
-      <c r="D198" t="s">
-        <v>281</v>
-      </c>
-      <c r="G198" t="s">
-        <v>480</v>
-      </c>
-      <c r="H198" t="s">
-        <v>6</v>
-      </c>
-      <c r="J198" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
-        <v>300</v>
+        <v>505</v>
       </c>
       <c r="D199" t="s">
-        <v>301</v>
-      </c>
-      <c r="E199" t="s">
-        <v>298</v>
+        <v>506</v>
       </c>
       <c r="G199" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H199" t="s">
         <v>7</v>
+      </c>
+      <c r="J199" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="D200" t="s">
-        <v>305</v>
+        <v>375</v>
+      </c>
+      <c r="E200" t="s">
+        <v>374</v>
       </c>
       <c r="G200" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J200" t="s">
         <v>3</v>
@@ -7892,49 +7948,74 @@
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
+      <c r="C201" t="s">
+        <v>177</v>
+      </c>
+      <c r="D201" t="s">
+        <v>180</v>
+      </c>
+      <c r="G201" t="s">
+        <v>477</v>
+      </c>
+      <c r="H201" t="s">
+        <v>6</v>
+      </c>
+      <c r="J201" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
-      <c r="B202" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B202" s="14"/>
       <c r="C202" t="s">
-        <v>49</v>
+        <v>231</v>
+      </c>
+      <c r="D202" t="s">
+        <v>235</v>
+      </c>
+      <c r="G202" t="s">
+        <v>471</v>
+      </c>
+      <c r="H202" t="s">
+        <v>7</v>
+      </c>
+      <c r="J202" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" t="s">
-        <v>515</v>
+        <v>275</v>
       </c>
       <c r="D203" t="s">
-        <v>516</v>
+        <v>278</v>
       </c>
       <c r="G203" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H203" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J203" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
-        <v>381</v>
+        <v>279</v>
       </c>
       <c r="D204" t="s">
-        <v>383</v>
-      </c>
-      <c r="E204" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="G204" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J204" t="s">
         <v>3</v>
@@ -7942,37 +8023,24 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
-      <c r="B205" s="14"/>
-      <c r="C205" t="s">
-        <v>177</v>
-      </c>
-      <c r="D205" t="s">
-        <v>180</v>
-      </c>
-      <c r="G205" t="s">
-        <v>486</v>
-      </c>
-      <c r="H205" t="s">
-        <v>6</v>
-      </c>
-      <c r="J205" t="s">
-        <v>3</v>
+      <c r="B205" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" t="s">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="D206" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="G206" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J206" t="s">
         <v>3</v>
@@ -7982,16 +8050,16 @@
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="D207" t="s">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="G207" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J207" t="s">
         <v>3</v>
@@ -8001,16 +8069,16 @@
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" t="s">
-        <v>287</v>
+        <v>130</v>
       </c>
       <c r="D208" t="s">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="G208" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J208" t="s">
         <v>3</v>
@@ -8018,24 +8086,37 @@
     </row>
     <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="14"/>
-      <c r="B209" s="7" t="s">
-        <v>57</v>
+      <c r="B209" s="14"/>
+      <c r="C209" t="s">
+        <v>236</v>
+      </c>
+      <c r="D209" t="s">
+        <v>239</v>
+      </c>
+      <c r="G209" t="s">
+        <v>471</v>
+      </c>
+      <c r="H209" t="s">
+        <v>7</v>
+      </c>
+      <c r="J209" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" t="s">
-        <v>128</v>
+        <v>365</v>
       </c>
       <c r="D210" t="s">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="G210" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J210" t="s">
         <v>3</v>
@@ -8044,114 +8125,111 @@
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
-      <c r="C211" t="s">
-        <v>129</v>
-      </c>
-      <c r="D211" t="s">
-        <v>135</v>
-      </c>
-      <c r="G211" t="s">
-        <v>480</v>
-      </c>
-      <c r="H211" t="s">
-        <v>6</v>
-      </c>
-      <c r="J211" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
-      <c r="B212" s="14"/>
-      <c r="C212" t="s">
-        <v>130</v>
-      </c>
-      <c r="D212" t="s">
-        <v>510</v>
-      </c>
-      <c r="G212" t="s">
-        <v>480</v>
-      </c>
-      <c r="H212" t="s">
-        <v>7</v>
-      </c>
-      <c r="J212" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
-      <c r="B213" s="14"/>
+      <c r="B213" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C213" t="s">
-        <v>243</v>
-      </c>
-      <c r="D213" t="s">
-        <v>246</v>
-      </c>
-      <c r="G213" t="s">
-        <v>480</v>
-      </c>
-      <c r="H213" t="s">
-        <v>7</v>
-      </c>
-      <c r="J213" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" t="s">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="D214" t="s">
-        <v>376</v>
+        <v>136</v>
       </c>
       <c r="G214" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J214" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
-    </row>
-    <row r="216" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>35</v>
+      <c r="C215" t="s">
+        <v>130</v>
+      </c>
+      <c r="D215" t="s">
+        <v>137</v>
+      </c>
+      <c r="G215" t="s">
+        <v>471</v>
+      </c>
+      <c r="H215" t="s">
+        <v>7</v>
+      </c>
+      <c r="J215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="14"/>
+      <c r="B216" s="14"/>
+      <c r="C216" t="s">
+        <v>128</v>
+      </c>
+      <c r="D216" t="s">
+        <v>138</v>
+      </c>
+      <c r="G216" t="s">
+        <v>471</v>
+      </c>
+      <c r="H216" t="s">
+        <v>6</v>
+      </c>
+      <c r="J216" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
-      <c r="B217" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B217" s="14"/>
       <c r="C217" t="s">
-        <v>58</v>
+        <v>236</v>
+      </c>
+      <c r="D217" t="s">
+        <v>240</v>
+      </c>
+      <c r="G217" t="s">
+        <v>471</v>
+      </c>
+      <c r="H217" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="D218" t="s">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="G218" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J218" t="s">
         <v>3</v>
@@ -8160,108 +8238,99 @@
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
-      <c r="C219" t="s">
-        <v>130</v>
-      </c>
-      <c r="D219" t="s">
-        <v>137</v>
-      </c>
-      <c r="G219" t="s">
-        <v>480</v>
-      </c>
-      <c r="H219" t="s">
-        <v>7</v>
-      </c>
-      <c r="J219" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
-      <c r="B220" s="14"/>
-      <c r="C220" t="s">
-        <v>128</v>
-      </c>
-      <c r="D220" t="s">
-        <v>138</v>
-      </c>
-      <c r="G220" t="s">
-        <v>480</v>
-      </c>
-      <c r="H220" t="s">
-        <v>6</v>
-      </c>
-      <c r="J220" t="s">
-        <v>3</v>
+    </row>
+    <row r="220" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
-      <c r="B221" s="14"/>
+      <c r="B221" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C221" t="s">
-        <v>243</v>
-      </c>
-      <c r="D221" t="s">
-        <v>247</v>
-      </c>
-      <c r="G221" t="s">
-        <v>480</v>
-      </c>
-      <c r="H221" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="D222" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="G222" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H222" t="s">
         <v>5</v>
-      </c>
-      <c r="J222" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
-    </row>
-    <row r="224" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B224" s="12" t="s">
-        <v>46</v>
+      <c r="C223" t="s">
+        <v>317</v>
+      </c>
+      <c r="D223" t="s">
+        <v>325</v>
+      </c>
+      <c r="G223" t="s">
+        <v>471</v>
+      </c>
+      <c r="H223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="14"/>
+      <c r="B224" s="14"/>
+      <c r="C224" t="s">
+        <v>318</v>
+      </c>
+      <c r="D224" t="s">
+        <v>329</v>
+      </c>
+      <c r="G224" t="s">
+        <v>471</v>
+      </c>
+      <c r="H224" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="14"/>
-      <c r="B225" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>139</v>
+        <v>319</v>
+      </c>
+      <c r="D225" t="s">
+        <v>326</v>
+      </c>
+      <c r="G225" t="s">
+        <v>471</v>
+      </c>
+      <c r="H225" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D226" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G226" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H226" t="s">
         <v>5</v>
@@ -8271,13 +8340,13 @@
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D227" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G227" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H227" t="s">
         <v>5</v>
@@ -8287,13 +8356,13 @@
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D228" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G228" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H228" t="s">
         <v>5</v>
@@ -8303,13 +8372,13 @@
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D229" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G229" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H229" t="s">
         <v>5</v>
@@ -8319,13 +8388,13 @@
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="D230" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="G230" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H230" t="s">
         <v>5</v>
@@ -8335,64 +8404,76 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D231" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="E231" t="s">
+        <v>507</v>
       </c>
       <c r="G231" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D232" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="E232" t="s">
+        <v>508</v>
       </c>
       <c r="G232" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D233" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="E233" t="s">
+        <v>509</v>
       </c>
       <c r="G233" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="D234" t="s">
-        <v>367</v>
+        <v>339</v>
+      </c>
+      <c r="E234" t="s">
+        <v>510</v>
       </c>
       <c r="G234" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -8405,10 +8486,10 @@
         <v>343</v>
       </c>
       <c r="E235" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G235" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H235" t="s">
         <v>7</v>
@@ -8424,10 +8505,10 @@
         <v>344</v>
       </c>
       <c r="E236" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G236" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H236" t="s">
         <v>7</v>
@@ -8443,10 +8524,10 @@
         <v>345</v>
       </c>
       <c r="E237" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G237" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H237" t="s">
         <v>7</v>
@@ -8459,13 +8540,13 @@
         <v>346</v>
       </c>
       <c r="D238" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E238" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G238" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H238" t="s">
         <v>7</v>
@@ -8475,16 +8556,16 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D239" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E239" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G239" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H239" t="s">
         <v>7</v>
@@ -8494,16 +8575,16 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D240" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E240" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G240" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H240" t="s">
         <v>7</v>
@@ -8513,16 +8594,16 @@
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D241" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E241" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="G241" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H241" t="s">
         <v>7</v>
@@ -8532,16 +8613,16 @@
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D242" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E242" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G242" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H242" t="s">
         <v>7</v>
@@ -8551,16 +8632,16 @@
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" t="s">
+        <v>354</v>
+      </c>
+      <c r="D243" t="s">
         <v>355</v>
       </c>
-      <c r="D243" t="s">
-        <v>358</v>
-      </c>
       <c r="E243" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G243" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H243" t="s">
         <v>7</v>
@@ -8569,124 +8650,100 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
-      <c r="C244" t="s">
-        <v>356</v>
-      </c>
-      <c r="D244" t="s">
-        <v>359</v>
-      </c>
-      <c r="E244" t="s">
-        <v>519</v>
-      </c>
-      <c r="G244" t="s">
-        <v>480</v>
-      </c>
-      <c r="H244" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
-      <c r="B245" s="14"/>
-      <c r="C245" t="s">
-        <v>360</v>
-      </c>
-      <c r="D245" t="s">
-        <v>365</v>
-      </c>
-      <c r="E245" t="s">
-        <v>517</v>
-      </c>
-      <c r="G245" t="s">
-        <v>480</v>
-      </c>
-      <c r="H245" t="s">
-        <v>7</v>
+    </row>
+    <row r="245" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
-      <c r="B246" s="14"/>
+      <c r="B246" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="C246" t="s">
-        <v>361</v>
-      </c>
-      <c r="D246" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="E246" t="s">
-        <v>518</v>
-      </c>
-      <c r="G246" t="s">
-        <v>480</v>
-      </c>
-      <c r="H246" t="s">
-        <v>7</v>
+        <v>449</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" t="s">
-        <v>362</v>
-      </c>
-      <c r="D247" t="s">
-        <v>363</v>
-      </c>
-      <c r="E247" t="s">
-        <v>519</v>
+        <v>412</v>
       </c>
       <c r="G247" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H247" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
-    </row>
-    <row r="249" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B249" s="10" t="s">
-        <v>36</v>
+      <c r="C248" t="s">
+        <v>364</v>
+      </c>
+      <c r="G248" t="s">
+        <v>471</v>
+      </c>
+      <c r="H248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="14"/>
+      <c r="B249" s="14"/>
+      <c r="C249" t="s">
+        <v>413</v>
+      </c>
+      <c r="G249" t="s">
+        <v>471</v>
+      </c>
+      <c r="H249" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
-      <c r="B250" s="7" t="s">
-        <v>420</v>
-      </c>
+      <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>420</v>
-      </c>
-      <c r="E250" t="s">
-        <v>458</v>
+        <v>414</v>
+      </c>
+      <c r="G250" t="s">
+        <v>471</v>
+      </c>
+      <c r="H250" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
-        <v>421</v>
+        <v>512</v>
       </c>
       <c r="G251" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H251" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="G252" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H252" t="s">
         <v>2</v>
@@ -8696,518 +8753,532 @@
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G253" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H253" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G254" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H254" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" t="s">
-        <v>522</v>
+        <v>363</v>
       </c>
       <c r="G255" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H255" t="s">
-        <v>419</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
-      <c r="C256" t="s">
-        <v>424</v>
-      </c>
-      <c r="G256" t="s">
-        <v>480</v>
-      </c>
-      <c r="H256" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
-      <c r="B257" s="14"/>
+      <c r="B257" s="16" t="s">
+        <v>419</v>
+      </c>
       <c r="C257" t="s">
-        <v>425</v>
+        <v>418</v>
+      </c>
+      <c r="E257" t="s">
+        <v>450</v>
       </c>
       <c r="G257" t="s">
-        <v>486</v>
-      </c>
-      <c r="H257" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G258" t="s">
-        <v>480</v>
-      </c>
-      <c r="H258" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="G259" t="s">
-        <v>480</v>
-      </c>
-      <c r="H259" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>422</v>
+      </c>
+      <c r="G260" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
-      <c r="B261" s="16" t="s">
-        <v>428</v>
-      </c>
+      <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>427</v>
-      </c>
-      <c r="E261" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="G261" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G262" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G263" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G264" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G265" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G266" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G267" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G268" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G269" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
         <v>437</v>
       </c>
       <c r="G270" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G271" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G272" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G273" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
-      <c r="C274" t="s">
-        <v>446</v>
-      </c>
-      <c r="G274" t="s">
-        <v>480</v>
-      </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
-      <c r="B275" s="14"/>
+      <c r="B275" s="7" t="s">
+        <v>486</v>
+      </c>
       <c r="C275" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="G275" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="G276" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="G277" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
+      <c r="C278" t="s">
+        <v>482</v>
+      </c>
+      <c r="G278" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
-      <c r="B279" s="7" t="s">
-        <v>495</v>
-      </c>
+      <c r="B279" s="14"/>
       <c r="C279" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G279" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G280" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G281" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G282" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G283" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
-      <c r="C284" t="s">
-        <v>493</v>
-      </c>
-      <c r="G284" t="s">
-        <v>480</v>
-      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
-      <c r="B285" s="14"/>
+      <c r="B285" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="C285" t="s">
-        <v>494</v>
+        <v>433</v>
+      </c>
+      <c r="E285" t="s">
+        <v>450</v>
       </c>
       <c r="G285" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="G286" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="G287" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
+      <c r="C288" t="s">
+        <v>441</v>
+      </c>
+      <c r="G288" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
-      <c r="B289" s="16" t="s">
-        <v>441</v>
-      </c>
+      <c r="B289" s="14"/>
       <c r="C289" t="s">
-        <v>442</v>
-      </c>
-      <c r="E289" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="G289" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G290" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G291" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
-      <c r="C292" t="s">
-        <v>450</v>
-      </c>
-      <c r="G292" t="s">
-        <v>480</v>
-      </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
-      <c r="B293" s="14"/>
+      <c r="B293" s="16" t="s">
+        <v>442</v>
+      </c>
       <c r="C293" t="s">
-        <v>447</v>
+        <v>443</v>
+      </c>
+      <c r="E293" t="s">
+        <v>449</v>
       </c>
       <c r="G293" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G294" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G295" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
+      <c r="C296" t="s">
+        <v>446</v>
+      </c>
+      <c r="G296" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
-      <c r="B297" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="C297" t="s">
-        <v>452</v>
-      </c>
-      <c r="E297" t="s">
-        <v>458</v>
-      </c>
-      <c r="G297" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="14"/>
-      <c r="B298" s="14"/>
-      <c r="C298" t="s">
-        <v>453</v>
-      </c>
-      <c r="G298" t="s">
-        <v>486</v>
+      <c r="B297" s="14"/>
+    </row>
+    <row r="298" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
-      <c r="B299" s="14"/>
+      <c r="B299" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="C299" t="s">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="G299" t="s">
-        <v>486</v>
+        <v>471</v>
+      </c>
+      <c r="H299" t="s">
+        <v>2</v>
+      </c>
+      <c r="J299" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="G300" t="s">
-        <v>486</v>
+        <v>471</v>
+      </c>
+      <c r="H300" t="s">
+        <v>2</v>
+      </c>
+      <c r="J300" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
-      <c r="B301" s="14"/>
-    </row>
-    <row r="302" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B302" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B301" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C301" t="s">
+        <v>389</v>
+      </c>
+      <c r="G301" t="s">
+        <v>471</v>
+      </c>
+      <c r="H301" t="s">
+        <v>2</v>
+      </c>
+      <c r="J301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="14"/>
+      <c r="B302" s="14"/>
+      <c r="C302" t="s">
+        <v>390</v>
+      </c>
+      <c r="G302" t="s">
+        <v>471</v>
+      </c>
+      <c r="H302" t="s">
+        <v>2</v>
+      </c>
+      <c r="J302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
-      <c r="B303" s="7" t="s">
-        <v>413</v>
-      </c>
+      <c r="B303" s="14"/>
       <c r="C303" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G303" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H303" t="s">
         <v>2</v>
@@ -9220,10 +9291,10 @@
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="G304" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H304" t="s">
         <v>2</v>
@@ -9235,13 +9306,13 @@
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
       <c r="B305" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="C305" t="s">
+        <v>395</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>397</v>
       </c>
       <c r="G305" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H305" t="s">
         <v>2</v>
@@ -9250,14 +9321,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
-      <c r="C306" t="s">
-        <v>398</v>
+      <c r="C306" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="G306" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H306" t="s">
         <v>2</v>
@@ -9266,30 +9337,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
-      <c r="C307" t="s">
-        <v>400</v>
-      </c>
-      <c r="G307" t="s">
-        <v>480</v>
-      </c>
-      <c r="H307" t="s">
-        <v>2</v>
-      </c>
-      <c r="J307" t="s">
-        <v>3</v>
-      </c>
+      <c r="C307" s="4"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
-      <c r="B308" s="14"/>
-      <c r="C308" t="s">
-        <v>410</v>
+      <c r="B308" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="G308" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H308" t="s">
         <v>2</v>
@@ -9300,14 +9362,12 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
-      <c r="B309" s="14" t="s">
-        <v>403</v>
-      </c>
+      <c r="B309" s="14"/>
       <c r="C309" s="4" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="G309" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H309" t="s">
         <v>2</v>
@@ -9320,10 +9380,10 @@
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G310" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H310" t="s">
         <v>2</v>
@@ -9335,21 +9395,30 @@
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
-      <c r="C311" s="4"/>
+      <c r="C311" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G311" t="s">
+        <v>471</v>
+      </c>
+      <c r="H311" t="s">
+        <v>2</v>
+      </c>
+      <c r="J311" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
-      <c r="B312" s="7" t="s">
-        <v>414</v>
-      </c>
+      <c r="B312" s="14"/>
       <c r="C312" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G312" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H312" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
       <c r="J312" t="s">
         <v>3</v>
@@ -9357,12 +9426,14 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
-      <c r="B313" s="14"/>
+      <c r="B313" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="C313" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G313" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H313" t="s">
         <v>2</v>
@@ -9375,10 +9446,10 @@
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="4" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="G314" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H314" t="s">
         <v>2</v>
@@ -9390,30 +9461,21 @@
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
-      <c r="C315" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G315" t="s">
-        <v>480</v>
-      </c>
-      <c r="H315" t="s">
-        <v>2</v>
-      </c>
-      <c r="J315" t="s">
-        <v>3</v>
-      </c>
+      <c r="C315" s="4"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
-      <c r="B316" s="14"/>
+      <c r="B316" s="16" t="s">
+        <v>406</v>
+      </c>
       <c r="C316" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G316" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H316" t="s">
-        <v>419</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
         <v>3</v>
@@ -9421,17 +9483,15 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
-      <c r="B317" s="14" t="s">
-        <v>415</v>
-      </c>
+      <c r="B317" s="14"/>
       <c r="C317" s="4" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G317" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H317" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
         <v>3</v>
@@ -9441,13 +9501,13 @@
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
       <c r="C318" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G318" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H318" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J318" t="s">
         <v>3</v>
@@ -9456,37 +9516,39 @@
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
-      <c r="C319" s="4"/>
+      <c r="C319" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G319" t="s">
+        <v>471</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1</v>
+      </c>
+      <c r="J319" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
-      <c r="B320" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="G320" t="s">
-        <v>480</v>
-      </c>
-      <c r="H320" t="s">
-        <v>1</v>
-      </c>
-      <c r="J320" t="s">
-        <v>3</v>
-      </c>
+      <c r="B320" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C320" s="4"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
-      <c r="B321" s="14"/>
+      <c r="B321" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C321" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G321" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H321" t="s">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="J321" t="s">
         <v>3</v>
@@ -9496,13 +9558,13 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G322" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H322" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J322" t="s">
         <v>3</v>
@@ -9512,13 +9574,13 @@
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G323" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H323" t="s">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="J323" t="s">
         <v>3</v>
@@ -9526,24 +9588,31 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
-      <c r="B324" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C324" s="4"/>
+      <c r="B324" s="14"/>
+      <c r="C324" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G324" t="s">
+        <v>471</v>
+      </c>
+      <c r="H324" t="s">
+        <v>410</v>
+      </c>
+      <c r="J324" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
-      <c r="B325" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B325" s="14"/>
       <c r="C325" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G325" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H325" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="J325" t="s">
         <v>3</v>
@@ -9553,13 +9622,13 @@
       <c r="A326" s="14"/>
       <c r="B326" s="14"/>
       <c r="C326" s="4" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="G326" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H326" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
       <c r="J326" t="s">
         <v>3</v>
@@ -9569,13 +9638,13 @@
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
       <c r="C327" s="4" t="s">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="G327" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H327" t="s">
-        <v>419</v>
+        <v>2</v>
       </c>
       <c r="J327" t="s">
         <v>3</v>
@@ -9585,13 +9654,13 @@
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>411</v>
+        <v>528</v>
       </c>
       <c r="G328" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H328" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="J328" t="s">
         <v>3</v>
@@ -9600,30 +9669,21 @@
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
-      <c r="C329" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G329" t="s">
-        <v>480</v>
-      </c>
-      <c r="H329" t="s">
-        <v>419</v>
-      </c>
-      <c r="J329" t="s">
-        <v>3</v>
-      </c>
+      <c r="C329" s="4"/>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
-      <c r="B330" s="14"/>
+      <c r="B330" s="18" t="s">
+        <v>395</v>
+      </c>
       <c r="C330" s="4" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G330" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H330" t="s">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>3</v>
@@ -9631,15 +9691,15 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="14"/>
+      <c r="B331" s="15"/>
       <c r="C331" s="4" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="G331" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H331" t="s">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="J331" t="s">
         <v>3</v>
@@ -9647,15 +9707,15 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="14"/>
+      <c r="B332" s="15"/>
       <c r="C332" s="4" t="s">
-        <v>511</v>
+        <v>393</v>
       </c>
       <c r="G332" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H332" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
         <v>3</v>
@@ -9663,15 +9723,15 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="14"/>
+      <c r="B333" s="15"/>
       <c r="C333" s="4" t="s">
-        <v>538</v>
+        <v>384</v>
       </c>
       <c r="G333" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H333" t="s">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
         <v>3</v>
@@ -9679,19 +9739,28 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="14"/>
-      <c r="C334" s="4"/>
+      <c r="B334" s="15"/>
+      <c r="C334" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G334" t="s">
+        <v>471</v>
+      </c>
+      <c r="H334" t="s">
+        <v>0</v>
+      </c>
+      <c r="J334" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
-      <c r="B335" s="18" t="s">
-        <v>403</v>
-      </c>
+      <c r="B335" s="15"/>
       <c r="C335" s="4" t="s">
-        <v>395</v>
+        <v>530</v>
       </c>
       <c r="G335" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="H335" t="s">
         <v>0</v>
@@ -9700,154 +9769,257 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
-      <c r="B336" s="15"/>
-      <c r="C336" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G336" t="s">
-        <v>480</v>
-      </c>
-      <c r="H336" t="s">
-        <v>0</v>
-      </c>
-      <c r="J336" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="14"/>
-      <c r="B337" s="15"/>
-      <c r="C337" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="G337" t="s">
-        <v>480</v>
-      </c>
-      <c r="H337" t="s">
-        <v>0</v>
-      </c>
-      <c r="J337" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B337" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C337" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="14"/>
-      <c r="B338" s="15"/>
-      <c r="C338" s="4" t="s">
-        <v>392</v>
+      <c r="B338" s="14"/>
+      <c r="C338" t="s">
+        <v>310</v>
+      </c>
+      <c r="D338" t="s">
+        <v>311</v>
+      </c>
+      <c r="E338" t="s">
+        <v>606</v>
       </c>
       <c r="G338" t="s">
-        <v>480</v>
-      </c>
-      <c r="H338" t="s">
-        <v>0</v>
-      </c>
-      <c r="J338" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="4" t="s">
-        <v>391</v>
+      <c r="B339" s="14"/>
+      <c r="C339" t="s">
+        <v>312</v>
+      </c>
+      <c r="D339" t="s">
+        <v>313</v>
       </c>
       <c r="G339" t="s">
-        <v>480</v>
-      </c>
-      <c r="H339" t="s">
-        <v>0</v>
-      </c>
-      <c r="J339" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
-      <c r="B340" s="15"/>
-      <c r="C340" s="4" t="s">
-        <v>540</v>
+      <c r="B340" s="14"/>
+      <c r="C340" t="s">
+        <v>592</v>
+      </c>
+      <c r="D340" t="s">
+        <v>593</v>
       </c>
       <c r="G340" t="s">
-        <v>480</v>
-      </c>
-      <c r="H340" t="s">
-        <v>0</v>
-      </c>
-      <c r="J340" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B341" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="14"/>
+      <c r="B341" s="14"/>
+      <c r="C341" t="s">
+        <v>594</v>
+      </c>
+      <c r="D341" t="s">
+        <v>595</v>
+      </c>
+      <c r="G341" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B342" s="14"/>
       <c r="C342" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="D342" t="s">
+        <v>597</v>
+      </c>
+      <c r="G342" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
-      <c r="C343" t="s">
-        <v>318</v>
-      </c>
-      <c r="D343" t="s">
-        <v>319</v>
-      </c>
-      <c r="G343" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
-      <c r="B344" s="14"/>
+      <c r="B344" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="C344" t="s">
-        <v>320</v>
-      </c>
-      <c r="D344" t="s">
-        <v>321</v>
-      </c>
-      <c r="G344" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C345" t="s">
+        <v>598</v>
+      </c>
+      <c r="D345" t="s">
+        <v>602</v>
+      </c>
+      <c r="G345" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="14"/>
-      <c r="B346" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B346" s="14"/>
       <c r="C346" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+      <c r="D346" t="s">
+        <v>603</v>
+      </c>
+      <c r="G346" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
       <c r="C347" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="D347" t="s">
-        <v>323</v>
+        <v>604</v>
       </c>
       <c r="G347" t="s">
-        <v>486</v>
-      </c>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="14"/>
+      <c r="B348" s="14"/>
+      <c r="C348" t="s">
+        <v>600</v>
+      </c>
+      <c r="D348" t="s">
+        <v>605</v>
+      </c>
+      <c r="G348" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="14"/>
+      <c r="B349" s="14"/>
+      <c r="C349" t="s">
+        <v>585</v>
+      </c>
+      <c r="D349" t="s">
+        <v>601</v>
+      </c>
+      <c r="G349" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="14"/>
+      <c r="B350" s="14"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="14"/>
+      <c r="B351" t="s">
+        <v>583</v>
+      </c>
+      <c r="C351" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="14"/>
+      <c r="B352" s="14"/>
+      <c r="C352" t="s">
+        <v>585</v>
+      </c>
+      <c r="D352" t="s">
+        <v>587</v>
+      </c>
+      <c r="G352" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="14"/>
+      <c r="B353" s="14"/>
+      <c r="C353" t="s">
+        <v>586</v>
+      </c>
+      <c r="D353" t="s">
+        <v>588</v>
+      </c>
+      <c r="G353" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="14"/>
+      <c r="B354" s="14"/>
+      <c r="C354" t="s">
+        <v>590</v>
+      </c>
+      <c r="D354" t="s">
+        <v>591</v>
+      </c>
+      <c r="E354" t="s">
+        <v>589</v>
+      </c>
+      <c r="G354" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="14"/>
+      <c r="B355" s="14"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="14"/>
+      <c r="B356" t="s">
+        <v>42</v>
+      </c>
+      <c r="C356" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="14"/>
+      <c r="B357" s="14"/>
+      <c r="C357" t="s">
+        <v>314</v>
+      </c>
+      <c r="D357" t="s">
+        <v>315</v>
+      </c>
+      <c r="G357" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="14"/>
+      <c r="B358" s="14"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="14"/>
+      <c r="B359" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9857,10 +10029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="K26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9876,15 +10048,16 @@
     <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="14" customWidth="1"/>
     <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="23" customWidth="1"/>
     <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="14" customWidth="1"/>
     <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="14" customWidth="1"/>
-    <col min="20" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" style="14" customWidth="1"/>
     <col min="23" max="24" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="29.28515625" style="14" customWidth="1"/>
@@ -9892,189 +10065,181 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K1" t="s">
+        <v>462</v>
+      </c>
+      <c r="L1" t="s">
+        <v>463</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="N1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O1" t="s">
         <v>465</v>
       </c>
-      <c r="C1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
+        <v>466</v>
+      </c>
+      <c r="R1" t="s">
         <v>467</v>
       </c>
-      <c r="F1" t="s">
+      <c r="T1" t="s">
         <v>468</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>469</v>
       </c>
-      <c r="I1" t="s">
+      <c r="W1" t="s">
         <v>470</v>
       </c>
-      <c r="K1" t="s">
-        <v>471</v>
-      </c>
-      <c r="L1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="N1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O1" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>475</v>
-      </c>
-      <c r="R1" t="s">
-        <v>476</v>
-      </c>
-      <c r="T1" t="s">
-        <v>477</v>
-      </c>
-      <c r="U1" t="s">
-        <v>478</v>
-      </c>
-      <c r="W1" t="s">
-        <v>479</v>
-      </c>
       <c r="X1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="M2" s="25"/>
+        <v>521</v>
+      </c>
+      <c r="M2" s="24"/>
       <c r="N2" s="19" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>399</v>
+      <c r="C3" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="20" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="M3" s="24"/>
+      <c r="M3" s="23"/>
       <c r="P3" s="14"/>
       <c r="S3" s="14"/>
       <c r="V3" s="14"/>
       <c r="Y3" s="14"/>
     </row>
     <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>546</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="C4" s="20" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D4" s="14"/>
       <c r="G4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="M4" s="24"/>
+      <c r="M4" s="23"/>
       <c r="P4" s="14"/>
       <c r="S4" s="14"/>
       <c r="V4" s="14"/>
       <c r="Y4" s="14"/>
     </row>
     <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>393</v>
+      <c r="A5" s="7"/>
+      <c r="C5" s="20" t="s">
+        <v>385</v>
       </c>
       <c r="D5" s="14"/>
       <c r="G5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="M5" s="24"/>
+      <c r="M5" s="23"/>
       <c r="P5" s="14"/>
       <c r="S5" s="14"/>
       <c r="V5" s="14"/>
       <c r="Y5" s="14"/>
     </row>
     <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>591</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="D6" s="14"/>
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="M6" s="24"/>
+      <c r="M6" s="23"/>
       <c r="P6" s="14"/>
       <c r="S6" s="14"/>
       <c r="V6" s="14"/>
       <c r="Y6" s="14"/>
     </row>
     <row r="7" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="D7" s="14"/>
       <c r="G7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="M7" s="24"/>
+      <c r="M7" s="23"/>
       <c r="P7" s="14"/>
       <c r="S7" s="14"/>
       <c r="V7" s="14"/>
@@ -10085,7 +10250,7 @@
       <c r="D8" s="14"/>
       <c r="G8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="M8" s="24"/>
+      <c r="M8" s="23"/>
       <c r="P8" s="14"/>
       <c r="S8" s="14"/>
       <c r="V8" s="14"/>
@@ -10096,96 +10261,88 @@
       <c r="D9" s="14"/>
       <c r="G9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="M9" s="24"/>
+      <c r="M9" s="23"/>
       <c r="P9" s="14"/>
       <c r="S9" s="14"/>
       <c r="V9" s="14"/>
       <c r="Y9" s="14"/>
     </row>
     <row r="10" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M10" s="24"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="M11" s="24"/>
+      <c r="M11" s="23"/>
       <c r="P11" s="14"/>
       <c r="S11" s="14"/>
       <c r="V11" s="14"/>
       <c r="Y11" s="14"/>
     </row>
     <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>546</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="C12" s="20" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D12" s="14"/>
       <c r="G12" s="14"/>
       <c r="J12" s="14"/>
-      <c r="M12" s="24"/>
+      <c r="M12" s="23"/>
       <c r="P12" s="14"/>
       <c r="S12" s="14"/>
       <c r="V12" s="14"/>
       <c r="Y12" s="14"/>
     </row>
     <row r="13" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>590</v>
-      </c>
+      <c r="A13" s="7"/>
       <c r="D13" s="14"/>
       <c r="G13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="23"/>
       <c r="P13" s="14"/>
       <c r="S13" s="14"/>
       <c r="V13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
     <row r="14" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>591</v>
-      </c>
+      <c r="A14" s="7"/>
       <c r="D14" s="14"/>
       <c r="G14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="M14" s="24"/>
+      <c r="M14" s="23"/>
       <c r="P14" s="14"/>
       <c r="S14" s="14"/>
       <c r="V14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
     <row r="15" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="D15" s="14"/>
       <c r="G15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="23"/>
       <c r="P15" s="14"/>
       <c r="S15" s="14"/>
       <c r="V15" s="14"/>
@@ -10196,7 +10353,7 @@
       <c r="D16" s="14"/>
       <c r="G16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="M16" s="24"/>
+      <c r="M16" s="23"/>
       <c r="P16" s="14"/>
       <c r="S16" s="14"/>
       <c r="V16" s="14"/>
@@ -10207,114 +10364,115 @@
       <c r="D17" s="14"/>
       <c r="G17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="M17" s="24"/>
+      <c r="M17" s="23"/>
       <c r="P17" s="14"/>
       <c r="S17" s="14"/>
       <c r="V17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
     <row r="18" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M18" s="24"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>550</v>
+      <c r="B19" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>537</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="20" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="J19" s="14"/>
-      <c r="M19" s="24"/>
+      <c r="M19" s="23"/>
       <c r="P19" s="14"/>
       <c r="S19" s="14"/>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
     </row>
     <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>552</v>
+      <c r="A20" s="7"/>
+      <c r="B20" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>539</v>
       </c>
       <c r="D20" s="14"/>
+      <c r="E20" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="F20" s="20" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G20" s="14"/>
+      <c r="H20" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="J20" s="14"/>
-      <c r="M20" s="24"/>
+      <c r="M20" s="23"/>
       <c r="P20" s="14"/>
       <c r="S20" s="14"/>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>551</v>
+      <c r="A21" s="7"/>
+      <c r="B21" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>538</v>
       </c>
       <c r="D21" s="14"/>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="M21" s="24"/>
+      <c r="M21" s="23"/>
       <c r="P21" s="14"/>
       <c r="S21" s="14"/>
       <c r="V21" s="14"/>
       <c r="Y21" s="14"/>
     </row>
     <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>553</v>
+      <c r="A22" s="7"/>
+      <c r="B22" s="20" t="s">
+        <v>540</v>
       </c>
       <c r="D22" s="14"/>
       <c r="G22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="M22" s="24"/>
+      <c r="M22" s="23"/>
       <c r="P22" s="14"/>
       <c r="S22" s="14"/>
       <c r="V22" s="14"/>
       <c r="Y22" s="14"/>
     </row>
     <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>554</v>
+      <c r="A23" s="7"/>
+      <c r="B23" s="20" t="s">
+        <v>541</v>
       </c>
       <c r="D23" s="14"/>
       <c r="G23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="M23" s="24"/>
+      <c r="M23" s="23"/>
       <c r="P23" s="14"/>
       <c r="S23" s="14"/>
       <c r="V23" s="14"/>
@@ -10322,13 +10480,13 @@
     </row>
     <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
-        <v>555</v>
+      <c r="B24" s="20" t="s">
+        <v>542</v>
       </c>
       <c r="D24" s="14"/>
       <c r="G24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="M24" s="24"/>
+      <c r="M24" s="23"/>
       <c r="P24" s="14"/>
       <c r="S24" s="14"/>
       <c r="V24" s="14"/>
@@ -10336,153 +10494,148 @@
     </row>
     <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="9" t="s">
-        <v>556</v>
+      <c r="B25" s="20" t="s">
+        <v>543</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D25" s="14"/>
       <c r="G25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="M25" s="24"/>
+      <c r="M25" s="23"/>
       <c r="P25" s="14"/>
       <c r="S25" s="14"/>
       <c r="V25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
     <row r="26" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M26" s="24"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>557</v>
+        <v>410</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>544</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="20" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="20" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="20" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="M27" s="24"/>
+        <v>399</v>
+      </c>
+      <c r="M27" s="23"/>
       <c r="N27" s="20" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="20" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="20" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="20" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="Y27" s="14"/>
     </row>
     <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>558</v>
+      <c r="A28" s="7"/>
+      <c r="B28" s="20" t="s">
+        <v>545</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D28" s="14"/>
       <c r="G28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="M28" s="24"/>
+      <c r="M28" s="23"/>
       <c r="P28" s="14"/>
       <c r="S28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="20" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="Y28" s="14"/>
     </row>
     <row r="29" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="20" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D29" s="14"/>
       <c r="G29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="M29" s="24"/>
+      <c r="M29" s="23"/>
       <c r="P29" s="14"/>
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="20" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="Y29" s="14"/>
     </row>
     <row r="30" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>591</v>
+      <c r="A30" s="7"/>
+      <c r="B30" s="20" t="s">
+        <v>242</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D30" s="14"/>
       <c r="G30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="M30" s="24"/>
+      <c r="M30" s="23"/>
       <c r="P30" s="14"/>
       <c r="S30" s="14"/>
       <c r="V30" s="14"/>
       <c r="Y30" s="14"/>
     </row>
     <row r="31" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="D31" s="14"/>
       <c r="G31" s="14"/>
       <c r="J31" s="14"/>
-      <c r="M31" s="24"/>
+      <c r="M31" s="23"/>
       <c r="P31" s="14"/>
       <c r="S31" s="14"/>
       <c r="V31" s="14"/>
@@ -10493,7 +10646,7 @@
       <c r="D32" s="14"/>
       <c r="G32" s="14"/>
       <c r="J32" s="14"/>
-      <c r="M32" s="24"/>
+      <c r="M32" s="23"/>
       <c r="P32" s="14"/>
       <c r="S32" s="14"/>
       <c r="V32" s="14"/>
@@ -10502,257 +10655,224 @@
     <row r="33" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="M33" s="24"/>
+        <v>212</v>
+      </c>
+      <c r="M33" s="23"/>
       <c r="N33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="S33" s="14"/>
       <c r="T33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Y33" s="14"/>
     </row>
     <row r="34" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M34" s="24"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>559</v>
+      <c r="B35" s="8" t="s">
+        <v>546</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>541</v>
+        <v>225</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="8" t="s">
         <v>152</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="M35" s="24"/>
+        <v>336</v>
+      </c>
+      <c r="M35" s="23"/>
       <c r="N35" s="8" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>584</v>
+        <v>253</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U35" s="8" t="s">
-        <v>584</v>
+        <v>254</v>
       </c>
       <c r="V35" s="14"/>
-      <c r="W35" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X35" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y35" s="14"/>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>560</v>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8" t="s">
+        <v>547</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>542</v>
+        <v>227</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="8" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="8" t="s">
         <v>154</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="M36" s="24"/>
+        <v>337</v>
+      </c>
+      <c r="M36" s="23"/>
       <c r="N36" s="8" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>584</v>
+        <v>256</v>
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U36" s="8" t="s">
-        <v>584</v>
+        <v>264</v>
       </c>
       <c r="V36" s="14"/>
-      <c r="W36" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X36" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>561</v>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8" t="s">
+        <v>548</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="8" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="8" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="8" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="M37" s="24"/>
+        <v>339</v>
+      </c>
+      <c r="M37" s="23"/>
       <c r="N37" s="8" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="8" t="s">
         <v>78</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>584</v>
+        <v>266</v>
       </c>
       <c r="S37" s="14"/>
       <c r="T37" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U37" s="8" t="s">
-        <v>584</v>
+        <v>475</v>
       </c>
       <c r="V37" s="14"/>
-      <c r="W37" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X37" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y37" s="14"/>
     </row>
     <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>208</v>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="8" t="s">
@@ -10763,74 +10883,60 @@
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="5" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="M38" s="24"/>
+        <v>344</v>
+      </c>
+      <c r="M38" s="23"/>
       <c r="N38" s="8" t="s">
         <v>162</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="8" t="s">
         <v>186</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>584</v>
+        <v>289</v>
       </c>
       <c r="S38" s="14"/>
-      <c r="T38" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U38" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V38" s="14"/>
-      <c r="W38" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X38" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y38" s="14"/>
     </row>
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>562</v>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8" t="s">
+        <v>549</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="8" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="G39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="8" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="M39" s="24"/>
+        <v>345</v>
+      </c>
+      <c r="M39" s="23"/>
       <c r="N39" s="8" t="s">
         <v>163</v>
       </c>
@@ -10839,777 +10945,777 @@
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>584</v>
+        <v>291</v>
       </c>
       <c r="S39" s="14"/>
-      <c r="T39" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V39" s="14"/>
-      <c r="W39" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X39" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="9" t="s">
-        <v>563</v>
+      <c r="B40" s="8" t="s">
+        <v>550</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D40" s="14"/>
       <c r="G40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="8" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="M40" s="24"/>
+        <v>350</v>
+      </c>
+      <c r="M40" s="23"/>
       <c r="N40" s="8" t="s">
         <v>164</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>584</v>
+        <v>293</v>
       </c>
       <c r="S40" s="14"/>
-      <c r="T40" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U40" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V40" s="14"/>
-      <c r="W40" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X40" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y40" s="14"/>
     </row>
     <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="9" t="s">
-        <v>564</v>
+      <c r="B41" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D41" s="14"/>
       <c r="G41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="8" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="M41" s="24"/>
+        <v>351</v>
+      </c>
+      <c r="M41" s="23"/>
       <c r="N41" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>584</v>
+        <v>258</v>
       </c>
       <c r="S41" s="14"/>
-      <c r="T41" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V41" s="14"/>
-      <c r="W41" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X41" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y41" s="14"/>
     </row>
     <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="9" t="s">
-        <v>565</v>
+      <c r="B42" s="8" t="s">
+        <v>551</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D42" s="14"/>
       <c r="G42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="M42" s="24"/>
+        <v>356</v>
+      </c>
+      <c r="M42" s="23"/>
       <c r="N42" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>584</v>
+        <v>259</v>
       </c>
       <c r="S42" s="14"/>
-      <c r="T42" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U42" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V42" s="14"/>
-      <c r="W42" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X42" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y42" s="14"/>
     </row>
     <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="9" t="s">
-        <v>566</v>
+      <c r="B43" s="8" t="s">
+        <v>552</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="14"/>
       <c r="J43" s="14"/>
       <c r="L43" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="M43" s="24"/>
+        <v>355</v>
+      </c>
+      <c r="M43" s="23"/>
       <c r="N43" s="8" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="P43" s="14"/>
-      <c r="Q43" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="R43" s="8" t="s">
-        <v>584</v>
+        <v>260</v>
       </c>
       <c r="S43" s="14"/>
-      <c r="T43" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U43" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V43" s="14"/>
-      <c r="W43" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X43" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y43" s="14"/>
     </row>
-    <row r="44" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="G44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="M44" s="23"/>
+      <c r="P44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="Y44" s="14"/>
+    </row>
+    <row r="45" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="23"/>
+    </row>
+    <row r="46" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="L45" s="8" t="s">
+      <c r="B46" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="R45" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="S45" s="14"/>
-      <c r="T45" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U45" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="V45" s="14"/>
-      <c r="W45" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X45" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="Y45" s="14"/>
-    </row>
-    <row r="46" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>374</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J46" s="14"/>
-      <c r="K46" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="M46" s="24"/>
+      <c r="K46" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="M46" s="23"/>
       <c r="N46" s="8" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
-        <v>584</v>
+        <v>305</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>584</v>
+        <v>304</v>
       </c>
       <c r="V46" s="14"/>
-      <c r="W46" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X46" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y46" s="14"/>
     </row>
-    <row r="47" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>590</v>
-      </c>
+    <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="8" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J47" s="14"/>
-      <c r="K47" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="M47" s="24"/>
+      <c r="K47" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M47" s="23"/>
       <c r="N47" s="8" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>583</v>
+        <v>75</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
-        <v>584</v>
+        <v>307</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>584</v>
+        <v>306</v>
       </c>
       <c r="V47" s="14"/>
-      <c r="W47" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X47" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y47" s="14"/>
     </row>
     <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>506</v>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>504</v>
+        <v>368</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="8" t="s">
-        <v>377</v>
+        <v>246</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="J48" s="14"/>
-      <c r="K48" s="8" t="s">
-        <v>288</v>
+      <c r="K48" s="5" t="s">
+        <v>566</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="M48" s="24"/>
+        <v>277</v>
+      </c>
+      <c r="M48" s="23"/>
       <c r="N48" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R48" s="8" t="s">
-        <v>167</v>
+        <v>74</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>570</v>
       </c>
       <c r="S48" s="14"/>
-      <c r="T48" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="U48" s="8" t="s">
-        <v>584</v>
+        <v>474</v>
       </c>
       <c r="V48" s="14"/>
-      <c r="W48" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X48" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y48" s="14"/>
     </row>
     <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="8" t="s">
-        <v>571</v>
+        <v>145</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G49" s="14"/>
+      <c r="H49" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="J49" s="14"/>
       <c r="K49" s="8" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M49" s="24"/>
+        <v>278</v>
+      </c>
+      <c r="M49" s="23"/>
+      <c r="N49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S49" s="14"/>
-      <c r="T49" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U49" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V49" s="14"/>
-      <c r="W49" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X49" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y49" s="14"/>
     </row>
     <row r="50" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="8" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="8" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M50" s="24"/>
+        <v>361</v>
+      </c>
+      <c r="M50" s="23"/>
+      <c r="N50" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S50" s="14"/>
-      <c r="T50" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U50" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V50" s="14"/>
-      <c r="W50" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X50" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y50" s="14"/>
     </row>
     <row r="51" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
+      <c r="B51" s="8" t="s">
+        <v>497</v>
+      </c>
       <c r="D51" s="14"/>
       <c r="E51" s="8" t="s">
-        <v>149</v>
+        <v>498</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>175</v>
+        <v>495</v>
       </c>
       <c r="G51" s="14"/>
       <c r="J51" s="14"/>
-      <c r="M51" s="24"/>
+      <c r="K51" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="M51" s="23"/>
+      <c r="N51" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="P51" s="14"/>
       <c r="Q51" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="S51" s="14"/>
-      <c r="T51" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U51" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V51" s="14"/>
-      <c r="W51" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X51" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y51" s="14"/>
     </row>
     <row r="52" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="D52" s="14"/>
       <c r="E52" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G52" s="14"/>
       <c r="J52" s="14"/>
-      <c r="M52" s="24"/>
+      <c r="K52" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="M52" s="23"/>
+      <c r="N52" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="P52" s="14"/>
       <c r="Q52" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S52" s="14"/>
-      <c r="T52" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U52" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="V52" s="14"/>
-      <c r="W52" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X52" s="8" t="s">
-        <v>584</v>
-      </c>
       <c r="Y52" s="14"/>
     </row>
     <row r="53" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="D53" s="14"/>
       <c r="E53" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G53" s="14"/>
       <c r="J53" s="14"/>
-      <c r="M53" s="24"/>
+      <c r="K53" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="M53" s="23"/>
       <c r="P53" s="14"/>
       <c r="Q53" s="8" t="s">
-        <v>580</v>
+        <v>62</v>
       </c>
       <c r="R53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="Y53" s="14"/>
+    </row>
+    <row r="54" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="M54" s="23"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="R54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="S53" s="14"/>
-      <c r="T53" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="U53" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="V53" s="14"/>
-      <c r="W53" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="X53" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="Y53" s="14"/>
-    </row>
-    <row r="54" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M54" s="24"/>
-    </row>
-    <row r="55" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="S54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="Y54" s="14"/>
+    </row>
+    <row r="55" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="23"/>
+    </row>
+    <row r="56" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="14"/>
-      <c r="I55" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J55" s="14"/>
-      <c r="M55" s="24"/>
-      <c r="P55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="Y55" s="14"/>
-    </row>
-    <row r="56" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G56" s="14"/>
+      <c r="H56" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="I56" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J56" s="14"/>
-      <c r="M56" s="24"/>
+      <c r="K56" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M56" s="23"/>
+      <c r="N56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="P56" s="14"/>
+      <c r="Q56" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="S56" s="14"/>
+      <c r="T56" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="U56" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="V56" s="14"/>
       <c r="Y56" s="14"/>
     </row>
     <row r="57" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>590</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="8" t="s">
-        <v>461</v>
+        <v>132</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="G57" s="14"/>
+      <c r="H57" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="I57" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J57" s="14"/>
-      <c r="M57" s="24"/>
+      <c r="K57" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="M57" s="23"/>
+      <c r="N57" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="P57" s="14"/>
+      <c r="Q57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="S57" s="14"/>
+      <c r="T57" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="U57" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="V57" s="14"/>
       <c r="Y57" s="14"/>
     </row>
     <row r="58" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
-        <v>591</v>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
-        <v>135</v>
+        <v>452</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="8" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="J58" s="14"/>
-      <c r="M58" s="24"/>
+      <c r="K58" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="M58" s="23"/>
+      <c r="N58" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="P58" s="14"/>
+      <c r="Q58" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="S58" s="14"/>
+      <c r="T58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U58" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="V58" s="14"/>
       <c r="Y58" s="14"/>
     </row>
     <row r="59" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>592</v>
-      </c>
+      <c r="A59" s="7"/>
       <c r="D59" s="14"/>
       <c r="E59" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="J59" s="14"/>
-      <c r="M59" s="24"/>
+      <c r="L59" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="M59" s="23"/>
+      <c r="N59" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="P59" s="14"/>
+      <c r="Q59" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="S59" s="14"/>
+      <c r="T59" s="8" t="s">
+        <v>579</v>
+      </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>
     </row>
     <row r="60" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="D60" s="14"/>
+      <c r="E60" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="G60" s="14"/>
       <c r="H60" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="J60" s="14"/>
-      <c r="M60" s="24"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="P60" s="14"/>
+      <c r="Q60" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="S60" s="14"/>
+      <c r="T60" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="V60" s="14"/>
       <c r="Y60" s="14"/>
     </row>
     <row r="61" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="D61" s="14"/>
+      <c r="F61" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="G61" s="14"/>
+      <c r="H61" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>578</v>
+      </c>
       <c r="J61" s="14"/>
-      <c r="M61" s="24"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="P61" s="14"/>
+      <c r="Q61" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="S61" s="14"/>
+      <c r="T61" s="8" t="s">
+        <v>580</v>
+      </c>
       <c r="V61" s="14"/>
       <c r="Y61" s="14"/>
     </row>
@@ -11618,8 +11724,11 @@
       <c r="D62" s="14"/>
       <c r="G62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="M62" s="24"/>
+      <c r="M62" s="23"/>
       <c r="P62" s="14"/>
+      <c r="Q62" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="S62" s="14"/>
       <c r="V62" s="14"/>
       <c r="Y62" s="14"/>
@@ -11629,61 +11738,69 @@
       <c r="D63" s="14"/>
       <c r="G63" s="14"/>
       <c r="J63" s="14"/>
-      <c r="M63" s="24"/>
+      <c r="M63" s="23"/>
       <c r="P63" s="14"/>
       <c r="S63" s="14"/>
       <c r="V63" s="14"/>
       <c r="Y63" s="14"/>
     </row>
-    <row r="64" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M64" s="24"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="D64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="M64" s="23"/>
+      <c r="P64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="Y64" s="14"/>
+    </row>
+    <row r="65" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="23"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -11709,6 +11826,9 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\Gamelab1-Jaar2\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rilana\Documents\Gamelab1-Jaar2\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="606">
   <si>
     <t>Arne</t>
   </si>
@@ -1690,13 +1690,7 @@
     <t xml:space="preserve">4U_PRP_FENCE1 </t>
   </si>
   <si>
-    <t xml:space="preserve">2D_TXT_WALL </t>
-  </si>
-  <si>
     <t xml:space="preserve">3D_ENV_WALL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4U_ENV_WALL </t>
   </si>
   <si>
     <t>SmokeBomb.cs</t>
@@ -1855,7 +1849,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2017,8 +2011,8 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2040,9 +2034,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2080,7 +2074,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2115,6 +2109,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2150,9 +2161,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2308,20 +2336,20 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="88" max="88" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="88" max="88" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2771,7 +2799,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2800,7 +2828,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2829,7 +2857,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>410</v>
       </c>
@@ -2858,7 +2886,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2887,7 +2915,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="CJ6" t="s">
         <v>533</v>
@@ -2896,7 +2924,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2935,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="8" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2936,7 +2964,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +2993,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2994,7 +3022,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3443,7 +3471,7 @@
         <v>42393</v>
       </c>
     </row>
-    <row r="12" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3684,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -3694,7 +3722,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>410</v>
       </c>
@@ -3768,7 +3796,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4217,7 +4245,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="Q16" t="s">
         <v>5</v>
@@ -4232,7 +4260,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4246,7 +4274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -4272,7 +4300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4295,7 +4323,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -4332,20 +4360,20 @@
       <selection activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>89</v>
       </c>
@@ -4368,15 +4396,15 @@
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="7" t="s">
         <v>40</v>
@@ -4385,7 +4413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" t="s">
@@ -4404,7 +4432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" t="s">
@@ -4423,7 +4451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" t="s">
@@ -4442,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" t="s">
@@ -4461,7 +4489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" t="s">
@@ -4480,7 +4508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" t="s">
@@ -4499,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" t="s">
@@ -4518,7 +4546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" t="s">
@@ -4537,7 +4565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" t="s">
@@ -4556,7 +4584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" t="s">
@@ -4575,7 +4603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" t="s">
@@ -4594,7 +4622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" t="s">
@@ -4613,7 +4641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" t="s">
@@ -4632,7 +4660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" t="s">
@@ -4651,7 +4679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" t="s">
@@ -4670,7 +4698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" t="s">
@@ -4689,7 +4717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" t="s">
@@ -4708,7 +4736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" t="s">
@@ -4727,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" t="s">
@@ -4746,7 +4774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" t="s">
@@ -4765,7 +4793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" t="s">
@@ -4784,14 +4812,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" t="s">
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G25" t="s">
         <v>477</v>
@@ -4803,7 +4831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" t="s">
@@ -4822,7 +4850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" t="s">
@@ -4841,7 +4869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" t="s">
@@ -4860,7 +4888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" t="s">
@@ -4882,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" t="s">
@@ -4901,7 +4929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" t="s">
@@ -4920,7 +4948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" t="s">
@@ -4939,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" t="s">
@@ -4958,7 +4986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" t="s">
@@ -4977,7 +5005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" t="s">
@@ -4996,7 +5024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" t="s">
@@ -5015,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" t="s">
@@ -5034,7 +5062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" t="s">
@@ -5053,7 +5081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" t="s">
@@ -5072,7 +5100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" t="s">
@@ -5091,7 +5119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" t="s">
@@ -5110,7 +5138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" t="s">
@@ -5129,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" t="s">
@@ -5148,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" t="s">
@@ -5167,14 +5195,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" t="s">
         <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G45" t="s">
         <v>471</v>
@@ -5186,14 +5214,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" t="s">
         <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G46" t="s">
         <v>471</v>
@@ -5205,14 +5233,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" t="s">
         <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G47" t="s">
         <v>471</v>
@@ -5224,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" t="s">
@@ -5243,7 +5271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" t="s">
@@ -5262,7 +5290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" t="s">
@@ -5281,7 +5309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" t="s">
@@ -5300,7 +5328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" t="s">
@@ -5319,7 +5347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" t="s">
@@ -5338,7 +5366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" t="s">
@@ -5357,7 +5385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" t="s">
@@ -5376,7 +5404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" t="s">
@@ -5395,7 +5423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" t="s">
@@ -5414,7 +5442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" t="s">
@@ -5433,7 +5461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" t="s">
@@ -5452,7 +5480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" t="s">
@@ -5471,7 +5499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" t="s">
@@ -5490,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" t="s">
@@ -5509,7 +5537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" t="s">
@@ -5528,7 +5556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" t="s">
@@ -5547,7 +5575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" t="s">
@@ -5566,7 +5594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" t="s">
@@ -5585,7 +5613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" t="s">
@@ -5604,7 +5632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" t="s">
@@ -5623,7 +5651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" t="s">
@@ -5645,7 +5673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" t="s">
@@ -5664,7 +5692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" t="s">
@@ -5683,7 +5711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" t="s">
@@ -5702,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" t="s">
@@ -5721,7 +5749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" t="s">
@@ -5740,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" t="s">
@@ -5759,7 +5787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" t="s">
@@ -5778,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>360</v>
       </c>
@@ -5799,7 +5827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" t="s">
@@ -5818,7 +5846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" t="s">
@@ -5837,7 +5865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" t="s">
@@ -5856,7 +5884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" t="s">
@@ -5875,7 +5903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" t="s">
@@ -5894,26 +5922,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D83" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="7" t="s">
         <v>33</v>
@@ -5922,7 +5950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" t="s">
@@ -5941,7 +5969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" t="s">
@@ -5960,7 +5988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" t="s">
@@ -5979,7 +6007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" t="s">
@@ -5998,7 +6026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" t="s">
@@ -6017,7 +6045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" t="s">
@@ -6036,7 +6064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" t="s">
@@ -6055,7 +6083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" t="s">
@@ -6074,7 +6102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" t="s">
@@ -6093,7 +6121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" t="s">
@@ -6112,7 +6140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" t="s">
@@ -6131,7 +6159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" t="s">
@@ -6150,7 +6178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" t="s">
@@ -6169,7 +6197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" t="s">
@@ -6188,7 +6216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" t="s">
@@ -6207,7 +6235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" t="s">
@@ -6226,14 +6254,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D103" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G103" t="s">
         <v>477</v>
@@ -6245,11 +6273,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="7" t="s">
         <v>44</v>
@@ -6258,7 +6286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" t="s">
@@ -6277,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" t="s">
@@ -6296,7 +6324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" t="s">
@@ -6315,7 +6343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" t="s">
@@ -6334,7 +6362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
@@ -6353,7 +6381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
@@ -6372,7 +6400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
@@ -6391,7 +6419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
@@ -6410,7 +6438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" t="s">
@@ -6429,7 +6457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" t="s">
@@ -6448,7 +6476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
@@ -6467,7 +6495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
@@ -6486,7 +6514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
@@ -6505,7 +6533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
@@ -6524,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
@@ -6543,7 +6571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" t="s">
@@ -6565,7 +6593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" t="s">
@@ -6587,7 +6615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
@@ -6606,7 +6634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
@@ -6625,7 +6653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" t="s">
@@ -6644,7 +6672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" t="s">
@@ -6663,7 +6691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" t="s">
@@ -6682,7 +6710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" t="s">
@@ -6701,7 +6729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" t="s">
@@ -6720,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
@@ -6739,7 +6767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
@@ -6758,7 +6786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" t="s">
@@ -6777,7 +6805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" t="s">
@@ -6796,7 +6824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" t="s">
@@ -6818,7 +6846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" t="s">
@@ -6837,11 +6865,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="14"/>
       <c r="B137" s="7" t="s">
         <v>42</v>
@@ -6850,7 +6878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
@@ -6869,7 +6897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
@@ -6891,7 +6919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
@@ -6910,7 +6938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
@@ -6929,7 +6957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" t="s">
@@ -6948,7 +6976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" t="s">
@@ -6967,7 +6995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" t="s">
@@ -6986,7 +7014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" t="s">
@@ -7005,11 +7033,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="14"/>
       <c r="B147" s="7" t="s">
         <v>57</v>
@@ -7018,7 +7046,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
@@ -7037,7 +7065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" t="s">
@@ -7056,7 +7084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" t="s">
@@ -7075,7 +7103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" t="s">
@@ -7094,7 +7122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" t="s">
@@ -7113,11 +7141,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
     </row>
-    <row r="154" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>27</v>
       </c>
@@ -7125,7 +7153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="7" t="s">
         <v>33</v>
@@ -7134,7 +7162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" t="s">
@@ -7153,7 +7181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" t="s">
@@ -7172,7 +7200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" t="s">
@@ -7191,7 +7219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" t="s">
@@ -7210,7 +7238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" t="s">
@@ -7229,7 +7257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" t="s">
@@ -7248,7 +7276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
@@ -7267,7 +7295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
@@ -7286,7 +7314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
@@ -7305,7 +7333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
@@ -7324,7 +7352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
@@ -7343,7 +7371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" t="s">
@@ -7362,7 +7390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
@@ -7381,7 +7409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" t="s">
@@ -7400,7 +7428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" t="s">
@@ -7419,14 +7447,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D171" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G171" t="s">
         <v>477</v>
@@ -7438,11 +7466,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="14"/>
       <c r="B173" s="7" t="s">
         <v>44</v>
@@ -7451,7 +7479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" t="s">
@@ -7470,7 +7498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" t="s">
@@ -7489,7 +7517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
@@ -7508,7 +7536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" t="s">
@@ -7527,7 +7555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
@@ -7546,7 +7574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
@@ -7565,7 +7593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
@@ -7584,7 +7612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
@@ -7603,7 +7631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
@@ -7622,7 +7650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
@@ -7641,7 +7669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
@@ -7660,7 +7688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
@@ -7679,7 +7707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
@@ -7698,7 +7726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
@@ -7717,7 +7745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
@@ -7736,7 +7764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
@@ -7755,7 +7783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
@@ -7774,7 +7802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
@@ -7793,7 +7821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" t="s">
@@ -7812,7 +7840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" t="s">
@@ -7831,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" t="s">
@@ -7850,7 +7878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" t="s">
@@ -7872,7 +7900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" t="s">
@@ -7891,11 +7919,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
     </row>
-    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="14"/>
       <c r="B198" s="7" t="s">
         <v>42</v>
@@ -7904,7 +7932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
@@ -7923,7 +7951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
@@ -7945,7 +7973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
@@ -7964,7 +7992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" t="s">
@@ -7983,7 +8011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" t="s">
@@ -8002,7 +8030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
@@ -8021,13 +8049,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="14"/>
       <c r="B205" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" t="s">
@@ -8046,7 +8074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
@@ -8065,7 +8093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" t="s">
@@ -8084,7 +8112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" t="s">
@@ -8103,7 +8131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" t="s">
@@ -8122,11 +8150,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
     </row>
-    <row r="212" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>32</v>
       </c>
@@ -8134,7 +8162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="14"/>
       <c r="B213" s="7" t="s">
         <v>57</v>
@@ -8143,7 +8171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" t="s">
@@ -8162,7 +8190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" t="s">
@@ -8181,7 +8209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" t="s">
@@ -8200,7 +8228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" t="s">
@@ -8216,7 +8244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" t="s">
@@ -8235,11 +8263,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
     </row>
-    <row r="220" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>28</v>
       </c>
@@ -8247,7 +8275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="14"/>
       <c r="B221" s="7" t="s">
         <v>57</v>
@@ -8256,7 +8284,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
@@ -8272,7 +8300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" t="s">
@@ -8288,7 +8316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" t="s">
@@ -8304,7 +8332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
@@ -8320,7 +8348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
@@ -8336,7 +8364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
@@ -8352,7 +8380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
@@ -8368,7 +8396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
@@ -8384,7 +8412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
@@ -8400,7 +8428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
@@ -8419,7 +8447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
@@ -8438,7 +8466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
@@ -8457,7 +8485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
@@ -8476,7 +8504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
@@ -8495,7 +8523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
@@ -8514,7 +8542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
@@ -8533,7 +8561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
@@ -8552,7 +8580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
@@ -8571,7 +8599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
@@ -8590,7 +8618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
@@ -8609,7 +8637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" t="s">
@@ -8628,7 +8656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" t="s">
@@ -8647,11 +8675,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
     </row>
-    <row r="245" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>29</v>
       </c>
@@ -8659,7 +8687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="14"/>
       <c r="B246" s="7" t="s">
         <v>411</v>
@@ -8671,7 +8699,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" t="s">
@@ -8684,7 +8712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
@@ -8697,7 +8725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
@@ -8710,7 +8738,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
@@ -8723,7 +8751,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
@@ -8736,7 +8764,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
@@ -8749,7 +8777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" t="s">
@@ -8762,7 +8790,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" t="s">
@@ -8775,7 +8803,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" t="s">
@@ -8788,11 +8816,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="14"/>
       <c r="B257" s="16" t="s">
         <v>419</v>
@@ -8807,7 +8835,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
@@ -8817,7 +8845,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
@@ -8827,7 +8855,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
@@ -8837,7 +8865,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
@@ -8847,7 +8875,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
@@ -8857,7 +8885,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
@@ -8867,7 +8895,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
@@ -8877,7 +8905,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
@@ -8887,7 +8915,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
@@ -8897,7 +8925,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
@@ -8907,7 +8935,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
@@ -8917,7 +8945,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
@@ -8927,7 +8955,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
@@ -8937,7 +8965,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
@@ -8947,7 +8975,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
@@ -8957,7 +8985,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
@@ -8967,11 +8995,11 @@
         <v>471</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="14"/>
       <c r="B275" s="7" t="s">
         <v>486</v>
@@ -8983,7 +9011,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
@@ -8993,7 +9021,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" t="s">
@@ -9003,7 +9031,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" t="s">
@@ -9013,7 +9041,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" t="s">
@@ -9023,7 +9051,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
@@ -9033,7 +9061,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
@@ -9043,7 +9071,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
@@ -9053,7 +9081,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
@@ -9063,11 +9091,11 @@
         <v>471</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="14"/>
       <c r="B285" s="16" t="s">
         <v>432</v>
@@ -9082,7 +9110,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" t="s">
@@ -9092,7 +9120,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" t="s">
@@ -9102,7 +9130,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" t="s">
@@ -9112,7 +9140,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" t="s">
@@ -9122,7 +9150,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
@@ -9132,7 +9160,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" t="s">
@@ -9142,11 +9170,11 @@
         <v>471</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="14"/>
       <c r="B293" s="16" t="s">
         <v>442</v>
@@ -9161,7 +9189,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
@@ -9171,7 +9199,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" t="s">
@@ -9181,7 +9209,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" t="s">
@@ -9191,11 +9219,11 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
     </row>
-    <row r="298" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="13" t="s">
         <v>30</v>
       </c>
@@ -9203,7 +9231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="14"/>
       <c r="B299" s="7" t="s">
         <v>404</v>
@@ -9221,7 +9249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" t="s">
@@ -9237,7 +9265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="14"/>
       <c r="B301" s="14" t="s">
         <v>405</v>
@@ -9255,7 +9283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
@@ -9271,7 +9299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" t="s">
@@ -9287,7 +9315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" t="s">
@@ -9303,7 +9331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="14"/>
       <c r="B305" s="14" t="s">
         <v>395</v>
@@ -9321,7 +9349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
       <c r="C306" s="4" t="s">
@@ -9337,12 +9365,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
       <c r="C307" s="4"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="14"/>
       <c r="B308" s="7" t="s">
         <v>405</v>
@@ -9360,7 +9388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="4" t="s">
@@ -9376,7 +9404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="4" t="s">
@@ -9392,7 +9420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" s="4" t="s">
@@ -9408,7 +9436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="4" t="s">
@@ -9424,7 +9452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="14"/>
       <c r="B313" s="14" t="s">
         <v>406</v>
@@ -9442,7 +9470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="4" t="s">
@@ -9458,12 +9486,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="4"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="14"/>
       <c r="B316" s="16" t="s">
         <v>406</v>
@@ -9481,7 +9509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="4" t="s">
@@ -9497,7 +9525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
       <c r="C318" s="4" t="s">
@@ -9513,7 +9541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
       <c r="C319" s="4" t="s">
@@ -9529,14 +9557,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="14"/>
       <c r="B320" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C320" s="4"/>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="14"/>
       <c r="B321" s="16" t="s">
         <v>44</v>
@@ -9554,7 +9582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
@@ -9570,7 +9598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
@@ -9586,7 +9614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
@@ -9602,7 +9630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
       <c r="C325" s="4" t="s">
@@ -9618,7 +9646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="14"/>
       <c r="B326" s="14"/>
       <c r="C326" s="4" t="s">
@@ -9634,7 +9662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
       <c r="C327" s="4" t="s">
@@ -9650,7 +9678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
@@ -9666,12 +9694,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="4"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="14"/>
       <c r="B330" s="18" t="s">
         <v>395</v>
@@ -9689,7 +9717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="14"/>
       <c r="B331" s="15"/>
       <c r="C331" s="4" t="s">
@@ -9705,7 +9733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="14"/>
       <c r="B332" s="15"/>
       <c r="C332" s="4" t="s">
@@ -9721,7 +9749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="14"/>
       <c r="B333" s="15"/>
       <c r="C333" s="4" t="s">
@@ -9737,7 +9765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="14"/>
       <c r="B334" s="15"/>
       <c r="C334" s="4" t="s">
@@ -9753,7 +9781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="14"/>
       <c r="B335" s="15"/>
       <c r="C335" s="4" t="s">
@@ -9769,7 +9797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
         <v>31</v>
       </c>
@@ -9777,7 +9805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="14"/>
       <c r="B337" s="7" t="s">
         <v>44</v>
@@ -9786,7 +9814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" t="s">
@@ -9796,13 +9824,13 @@
         <v>311</v>
       </c>
       <c r="E338" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G338" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
       <c r="C339" t="s">
@@ -9815,183 +9843,183 @@
         <v>477</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D340" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G340" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D341" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G341" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D342" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G342" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="14"/>
       <c r="B344" s="7" t="s">
         <v>405</v>
       </c>
       <c r="C344" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D345" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G345" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D346" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G346" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
       <c r="C347" t="s">
         <v>279</v>
       </c>
       <c r="D347" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G347" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D348" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G348" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D349" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G349" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="14"/>
       <c r="B351" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C351" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
+        <v>583</v>
+      </c>
+      <c r="D352" t="s">
         <v>585</v>
-      </c>
-      <c r="D352" t="s">
-        <v>587</v>
       </c>
       <c r="G352" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" t="s">
+        <v>584</v>
+      </c>
+      <c r="D353" t="s">
         <v>586</v>
-      </c>
-      <c r="D353" t="s">
-        <v>588</v>
       </c>
       <c r="G353" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D354" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E354" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G354" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="14"/>
       <c r="B356" t="s">
         <v>42</v>
@@ -10000,7 +10028,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" t="s">
@@ -10013,11 +10041,11 @@
         <v>477</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
     </row>
@@ -10031,39 +10059,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="14" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="14" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" style="14" customWidth="1"/>
-    <col min="23" max="24" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.28515625" style="14" customWidth="1"/>
+    <col min="23" max="24" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>456</v>
       </c>
@@ -10089,7 +10117,7 @@
         <v>463</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N1" t="s">
         <v>464</v>
@@ -10116,7 +10144,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>514</v>
       </c>
@@ -10173,7 +10201,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -10195,7 +10223,7 @@
       <c r="V3" s="14"/>
       <c r="Y3" s="14"/>
     </row>
-    <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="C4" s="20" t="s">
         <v>400</v>
@@ -10209,7 +10237,7 @@
       <c r="V4" s="14"/>
       <c r="Y4" s="14"/>
     </row>
-    <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="C5" s="20" t="s">
         <v>385</v>
@@ -10223,7 +10251,7 @@
       <c r="V5" s="14"/>
       <c r="Y5" s="14"/>
     </row>
-    <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="D6" s="14"/>
       <c r="G6" s="14"/>
@@ -10234,7 +10262,7 @@
       <c r="V6" s="14"/>
       <c r="Y6" s="14"/>
     </row>
-    <row r="7" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="D7" s="14"/>
       <c r="G7" s="14"/>
@@ -10245,7 +10273,7 @@
       <c r="V7" s="14"/>
       <c r="Y7" s="14"/>
     </row>
-    <row r="8" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="D8" s="14"/>
       <c r="G8" s="14"/>
@@ -10256,7 +10284,7 @@
       <c r="V8" s="14"/>
       <c r="Y8" s="14"/>
     </row>
-    <row r="9" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="D9" s="14"/>
       <c r="G9" s="14"/>
@@ -10267,10 +10295,10 @@
       <c r="V9" s="14"/>
       <c r="Y9" s="14"/>
     </row>
-    <row r="10" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -10301,7 +10329,7 @@
       <c r="V11" s="14"/>
       <c r="Y11" s="14"/>
     </row>
-    <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="C12" s="20" t="s">
         <v>383</v>
@@ -10315,7 +10343,7 @@
       <c r="V12" s="14"/>
       <c r="Y12" s="14"/>
     </row>
-    <row r="13" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="D13" s="14"/>
       <c r="G13" s="14"/>
@@ -10326,7 +10354,7 @@
       <c r="V13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="D14" s="14"/>
       <c r="G14" s="14"/>
@@ -10337,7 +10365,7 @@
       <c r="V14" s="14"/>
       <c r="Y14" s="14"/>
     </row>
-    <row r="15" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="D15" s="14"/>
       <c r="G15" s="14"/>
@@ -10348,7 +10376,7 @@
       <c r="V15" s="14"/>
       <c r="Y15" s="14"/>
     </row>
-    <row r="16" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="D16" s="14"/>
       <c r="G16" s="14"/>
@@ -10359,7 +10387,7 @@
       <c r="V16" s="14"/>
       <c r="Y16" s="14"/>
     </row>
-    <row r="17" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="D17" s="14"/>
       <c r="G17" s="14"/>
@@ -10370,10 +10398,10 @@
       <c r="V17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
@@ -10388,14 +10416,14 @@
         <v>371</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
         <v>380</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J19" s="14"/>
       <c r="M19" s="23"/>
@@ -10404,7 +10432,7 @@
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
     </row>
-    <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="20" t="s">
         <v>536</v>
@@ -10433,7 +10461,7 @@
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
     </row>
-    <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="20" t="s">
         <v>535</v>
@@ -10450,7 +10478,7 @@
       <c r="V21" s="14"/>
       <c r="Y21" s="14"/>
     </row>
-    <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="20" t="s">
         <v>540</v>
@@ -10464,7 +10492,7 @@
       <c r="V22" s="14"/>
       <c r="Y22" s="14"/>
     </row>
-    <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="20" t="s">
         <v>541</v>
@@ -10478,7 +10506,7 @@
       <c r="V23" s="14"/>
       <c r="Y23" s="14"/>
     </row>
-    <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
         <v>542</v>
@@ -10492,7 +10520,7 @@
       <c r="V24" s="14"/>
       <c r="Y24" s="14"/>
     </row>
-    <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
         <v>543</v>
@@ -10509,10 +10537,10 @@
       <c r="V25" s="14"/>
       <c r="Y25" s="14"/>
     </row>
-    <row r="26" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>410</v>
       </c>
@@ -10520,14 +10548,14 @@
         <v>544</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="20" t="s">
@@ -10566,14 +10594,14 @@
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Y27" s="14"/>
     </row>
-    <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="20" t="s">
         <v>545</v>
@@ -10589,11 +10617,11 @@
       <c r="S28" s="14"/>
       <c r="V28" s="14"/>
       <c r="W28" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Y28" s="14"/>
     </row>
-    <row r="29" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="20" t="s">
         <v>187</v>
@@ -10609,11 +10637,11 @@
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Y29" s="14"/>
     </row>
-    <row r="30" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="20" t="s">
         <v>242</v>
@@ -10630,7 +10658,7 @@
       <c r="V30" s="14"/>
       <c r="Y30" s="14"/>
     </row>
-    <row r="31" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="D31" s="14"/>
       <c r="G31" s="14"/>
@@ -10641,7 +10669,7 @@
       <c r="V31" s="14"/>
       <c r="Y31" s="14"/>
     </row>
-    <row r="32" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="D32" s="14"/>
       <c r="G32" s="14"/>
@@ -10652,7 +10680,7 @@
       <c r="V32" s="14"/>
       <c r="Y32" s="14"/>
     </row>
-    <row r="33" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
         <v>212</v>
@@ -10711,10 +10739,10 @@
       </c>
       <c r="Y33" s="14"/>
     </row>
-    <row r="34" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M34" s="23"/>
     </row>
-    <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -10747,7 +10775,7 @@
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>237</v>
@@ -10766,7 +10794,7 @@
       <c r="V35" s="14"/>
       <c r="Y35" s="14"/>
     </row>
-    <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
         <v>547</v>
@@ -10797,7 +10825,7 @@
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>238</v>
@@ -10816,7 +10844,7 @@
       <c r="V36" s="14"/>
       <c r="Y36" s="14"/>
     </row>
-    <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
         <v>548</v>
@@ -10847,7 +10875,7 @@
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>239</v>
@@ -10866,7 +10894,7 @@
       <c r="V37" s="14"/>
       <c r="Y37" s="14"/>
     </row>
-    <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
         <v>205</v>
@@ -10890,7 +10918,7 @@
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>344</v>
@@ -10913,7 +10941,7 @@
       <c r="V38" s="14"/>
       <c r="Y38" s="14"/>
     </row>
-    <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
         <v>549</v>
@@ -10923,10 +10951,10 @@
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G39" s="14"/>
       <c r="J39" s="14"/>
@@ -10954,7 +10982,7 @@
       <c r="V39" s="14"/>
       <c r="Y39" s="14"/>
     </row>
-    <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
         <v>550</v>
@@ -10986,7 +11014,7 @@
       <c r="V40" s="14"/>
       <c r="Y40" s="14"/>
     </row>
-    <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
         <v>288</v>
@@ -11018,7 +11046,7 @@
       <c r="V41" s="14"/>
       <c r="Y41" s="14"/>
     </row>
-    <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
         <v>551</v>
@@ -11050,7 +11078,7 @@
       <c r="V42" s="14"/>
       <c r="Y42" s="14"/>
     </row>
-    <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
         <v>552</v>
@@ -11076,7 +11104,7 @@
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
     </row>
-    <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
         <v>553</v>
@@ -11091,15 +11119,15 @@
       <c r="V44" s="14"/>
       <c r="Y44" s="14"/>
     </row>
-    <row r="45" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>367</v>
@@ -11120,7 +11148,7 @@
       </c>
       <c r="J46" s="14"/>
       <c r="K46" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>359</v>
@@ -11137,7 +11165,7 @@
         <v>72</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
@@ -11149,13 +11177,10 @@
       <c r="V46" s="14"/>
       <c r="Y46" s="14"/>
     </row>
-    <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>366</v>
+        <v>554</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="8" t="s">
@@ -11173,7 +11198,7 @@
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>276</v>
@@ -11190,7 +11215,7 @@
         <v>75</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
@@ -11202,13 +11227,10 @@
       <c r="V47" s="14"/>
       <c r="Y47" s="14"/>
     </row>
-    <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>368</v>
+        <v>496</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="8" t="s">
@@ -11226,7 +11248,7 @@
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>277</v>
@@ -11243,7 +11265,7 @@
         <v>74</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="S48" s="14"/>
       <c r="U48" s="8" t="s">
@@ -11252,18 +11274,12 @@
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
     </row>
-    <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="8" t="s">
-        <v>496</v>
-      </c>
       <c r="D49" s="14"/>
       <c r="E49" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>494</v>
-      </c>
       <c r="G49" s="14"/>
       <c r="H49" s="8" t="s">
         <v>369</v>
@@ -11296,14 +11312,11 @@
       <c r="V49" s="14"/>
       <c r="Y49" s="14"/>
     </row>
-    <row r="50" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="8" t="s">
-        <v>476</v>
-      </c>
       <c r="D50" s="14"/>
       <c r="E50" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>493</v>
@@ -11331,11 +11344,8 @@
       <c r="V50" s="14"/>
       <c r="Y50" s="14"/>
     </row>
-    <row r="51" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="8" t="s">
-        <v>497</v>
-      </c>
       <c r="D51" s="14"/>
       <c r="E51" s="8" t="s">
         <v>498</v>
@@ -11363,7 +11373,7 @@
       <c r="V51" s="14"/>
       <c r="Y51" s="14"/>
     </row>
-    <row r="52" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="D52" s="14"/>
       <c r="E52" s="8" t="s">
@@ -11392,7 +11402,7 @@
       <c r="V52" s="14"/>
       <c r="Y52" s="14"/>
     </row>
-    <row r="53" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="D53" s="14"/>
       <c r="E53" s="8" t="s">
@@ -11418,7 +11428,7 @@
       <c r="V53" s="14"/>
       <c r="Y53" s="14"/>
     </row>
-    <row r="54" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="D54" s="14"/>
       <c r="E54" s="8" t="s">
@@ -11432,7 +11442,7 @@
       <c r="M54" s="23"/>
       <c r="P54" s="14"/>
       <c r="Q54" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="R54" s="8" t="s">
         <v>68</v>
@@ -11441,10 +11451,10 @@
       <c r="V54" s="14"/>
       <c r="Y54" s="14"/>
     </row>
-    <row r="55" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M55" s="23"/>
     </row>
-    <row r="56" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>6</v>
       </c>
@@ -11499,7 +11509,7 @@
       <c r="V56" s="14"/>
       <c r="Y56" s="14"/>
     </row>
-    <row r="57" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
         <v>133</v>
@@ -11552,7 +11562,7 @@
       <c r="V57" s="14"/>
       <c r="Y57" s="14"/>
     </row>
-    <row r="58" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
         <v>134</v>
@@ -11605,7 +11615,7 @@
       <c r="V58" s="14"/>
       <c r="Y58" s="14"/>
     </row>
-    <row r="59" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="D59" s="14"/>
       <c r="E59" s="8" t="s">
@@ -11641,12 +11651,12 @@
       </c>
       <c r="S59" s="14"/>
       <c r="T59" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>
     </row>
-    <row r="60" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="D60" s="14"/>
       <c r="E60" s="8" t="s">
@@ -11684,7 +11694,7 @@
       <c r="V60" s="14"/>
       <c r="Y60" s="14"/>
     </row>
-    <row r="61" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="D61" s="14"/>
       <c r="F61" s="8" t="s">
@@ -11695,7 +11705,7 @@
         <v>194</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J61" s="14"/>
       <c r="M61" s="23"/>
@@ -11714,12 +11724,12 @@
       </c>
       <c r="S61" s="14"/>
       <c r="T61" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="V61" s="14"/>
       <c r="Y61" s="14"/>
     </row>
-    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="D62" s="14"/>
       <c r="G62" s="14"/>
@@ -11733,7 +11743,7 @@
       <c r="V62" s="14"/>
       <c r="Y62" s="14"/>
     </row>
-    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="D63" s="14"/>
       <c r="G63" s="14"/>
@@ -11744,7 +11754,7 @@
       <c r="V63" s="14"/>
       <c r="Y63" s="14"/>
     </row>
-    <row r="64" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="D64" s="14"/>
       <c r="G64" s="14"/>
@@ -11755,79 +11765,79 @@
       <c r="V64" s="14"/>
       <c r="Y64" s="14"/>
     </row>
-    <row r="65" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="M65" s="23"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
     </row>
   </sheetData>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingo\Documents\school\DesignProcess\Gamelab 1 Jaar 2\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenj2\Documents\Gamelab1-Jaar2\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1815,7 +1815,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1939,7 +1939,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1963,12 +1963,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1989,9 +1989,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2029,7 +2029,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2101,7 +2101,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2259,15 +2259,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="88" max="88" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="88" max="88" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
@@ -4283,14 +4283,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9954,32 +9954,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="14" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="14" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.375" style="14" customWidth="1"/>
-    <col min="11" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.75" style="14" customWidth="1"/>
-    <col min="14" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="14" customWidth="1"/>
+    <col min="11" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="14" customWidth="1"/>
+    <col min="14" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="14" customWidth="1"/>
-    <col min="17" max="18" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="14" customWidth="1"/>
-    <col min="20" max="21" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" style="14" customWidth="1"/>
-    <col min="23" max="24" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.25" style="14" customWidth="1"/>
+    <col min="23" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -10983,10 +10983,10 @@
       <c r="A55" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D55" s="14"/>
@@ -11014,10 +11014,10 @@
       <c r="A56" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D56" s="14"/>
@@ -11040,10 +11040,10 @@
     </row>
     <row r="57" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>134</v>
       </c>
       <c r="D57" s="14"/>
@@ -11071,7 +11071,7 @@
         <v>199</v>
       </c>
       <c r="G58" s="14"/>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="9" t="s">
         <v>287</v>
       </c>
       <c r="J58" s="14"/>
@@ -11088,7 +11088,7 @@
         <v>201</v>
       </c>
       <c r="G59" s="14"/>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="9" t="s">
         <v>288</v>
       </c>
       <c r="J59" s="14"/>
@@ -11105,7 +11105,7 @@
         <v>202</v>
       </c>
       <c r="G60" s="14"/>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="9" t="s">
         <v>289</v>
       </c>
       <c r="J60" s="14"/>
@@ -11119,6 +11119,7 @@
       <c r="A61" s="7"/>
       <c r="D61" s="14"/>
       <c r="G61" s="14"/>
+      <c r="I61" s="9"/>
       <c r="J61" s="14"/>
       <c r="M61" s="14"/>
       <c r="P61" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="608">
   <si>
     <t>Arne</t>
   </si>
@@ -2310,15 +2310,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="88" max="88" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="88" max="88" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
@@ -4334,15 +4334,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="32.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10031,36 +10031,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="3.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="23" customWidth="1"/>
+    <col min="14" max="14" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="14" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="14" customWidth="1"/>
-    <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" style="14" customWidth="1"/>
-    <col min="23" max="24" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.28515625" style="14" customWidth="1"/>
+    <col min="23" max="24" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.25" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -10307,6 +10307,12 @@
         <v>383</v>
       </c>
       <c r="D12" s="14"/>
+      <c r="E12" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>384</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="J12" s="14"/>
       <c r="M12" s="23"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\Gamelab1-Jaar2\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gamelab1-Jaar2\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="637">
   <si>
     <t>Arne</t>
   </si>
@@ -1850,6 +1850,93 @@
   </si>
   <si>
     <t>Bureau</t>
+  </si>
+  <si>
+    <t>BGM_level1</t>
+  </si>
+  <si>
+    <t>SFX_KAPPADIE</t>
+  </si>
+  <si>
+    <t>SFX_HITKAPPA</t>
+  </si>
+  <si>
+    <t>SFX_BABYDIE</t>
+  </si>
+  <si>
+    <t>AMB_CICADAS</t>
+  </si>
+  <si>
+    <t>AMB_OWLS</t>
+  </si>
+  <si>
+    <t>AMB_BIRDS</t>
+  </si>
+  <si>
+    <t>AMB_WATER</t>
+  </si>
+  <si>
+    <t>SFX_SLASH1</t>
+  </si>
+  <si>
+    <t>SFX_DASH</t>
+  </si>
+  <si>
+    <t>SFX_SMOKEBOMB</t>
+  </si>
+  <si>
+    <t>SFX_SHURIKENTHROW</t>
+  </si>
+  <si>
+    <t>SFX_HOOK</t>
+  </si>
+  <si>
+    <t>SFX_DIE</t>
+  </si>
+  <si>
+    <t>SFX_JUMP</t>
+  </si>
+  <si>
+    <t>SFX_SHURIKENHITWALL</t>
+  </si>
+  <si>
+    <t>SFX_HOOKHIT</t>
+  </si>
+  <si>
+    <t>SFX_ENEMYATTACK</t>
+  </si>
+  <si>
+    <t>SFX_SLASH2</t>
+  </si>
+  <si>
+    <t>SFX_SLASH3</t>
+  </si>
+  <si>
+    <t>SFX_HITDESTRUCTIBLE</t>
+  </si>
+  <si>
+    <t>SFX_HEARTOBTAINED</t>
+  </si>
+  <si>
+    <t>SFX_LIFEOBTAINED</t>
+  </si>
+  <si>
+    <t>SFX_ITEMOBTAINED</t>
+  </si>
+  <si>
+    <t>SFX_QUESTADDED</t>
+  </si>
+  <si>
+    <t>SFX_QUESTCOMPLETED</t>
+  </si>
+  <si>
+    <t>SFX_GETHIT</t>
+  </si>
+  <si>
+    <t>SFX_GROWL1</t>
+  </si>
+  <si>
+    <t>SFX_STEP</t>
   </si>
 </sst>
 </file>
@@ -2304,21 +2391,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EU20"/>
   <sheetViews>
-    <sheetView topLeftCell="CH1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="CH22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="88" max="88" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="88" max="88" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
@@ -4328,21 +4415,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J359"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J171" sqref="J171"/>
+    <sheetView topLeftCell="B264" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F287" sqref="F287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8792,7 +8879,7 @@
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="16" t="s">
         <v>419</v>
@@ -8806,8 +8893,11 @@
       <c r="G257" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
@@ -8816,8 +8906,11 @@
       <c r="G258" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
@@ -8826,8 +8919,11 @@
       <c r="G259" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
@@ -8836,8 +8932,11 @@
       <c r="G260" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
@@ -8846,8 +8945,11 @@
       <c r="G261" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
@@ -8856,8 +8958,11 @@
       <c r="G262" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
@@ -8866,8 +8971,11 @@
       <c r="G263" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
@@ -8876,8 +8984,11 @@
       <c r="G264" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
@@ -8886,8 +8997,11 @@
       <c r="G265" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
@@ -8896,8 +9010,11 @@
       <c r="G266" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
@@ -8906,8 +9023,11 @@
       <c r="G267" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
@@ -8916,8 +9036,11 @@
       <c r="G268" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
@@ -8926,8 +9049,11 @@
       <c r="G269" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
@@ -8936,8 +9062,11 @@
       <c r="G270" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
@@ -8946,8 +9075,11 @@
       <c r="G271" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
@@ -8956,8 +9088,11 @@
       <c r="G272" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
@@ -8966,12 +9101,15 @@
       <c r="G273" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="7" t="s">
         <v>486</v>
@@ -8982,8 +9120,11 @@
       <c r="G275" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
@@ -8992,8 +9133,11 @@
       <c r="G276" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" t="s">
@@ -9002,8 +9146,11 @@
       <c r="G277" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" t="s">
@@ -9012,8 +9159,11 @@
       <c r="G278" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" t="s">
@@ -9022,8 +9172,11 @@
       <c r="G279" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
@@ -9032,8 +9185,11 @@
       <c r="G280" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
@@ -9042,8 +9198,11 @@
       <c r="G281" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
@@ -9052,8 +9211,11 @@
       <c r="G282" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
@@ -9062,12 +9224,15 @@
       <c r="G283" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="16" t="s">
         <v>432</v>
@@ -9081,8 +9246,11 @@
       <c r="G285" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" t="s">
@@ -9091,8 +9259,11 @@
       <c r="G286" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" t="s">
@@ -9101,8 +9272,11 @@
       <c r="G287" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" t="s">
@@ -9110,6 +9284,9 @@
       </c>
       <c r="G288" t="s">
         <v>471</v>
+      </c>
+      <c r="H288" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -9121,6 +9298,9 @@
       <c r="G289" t="s">
         <v>471</v>
       </c>
+      <c r="H289" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
@@ -9131,6 +9311,9 @@
       <c r="G290" t="s">
         <v>477</v>
       </c>
+      <c r="H290" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
@@ -9141,6 +9324,9 @@
       <c r="G291" t="s">
         <v>471</v>
       </c>
+      <c r="H291" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
@@ -9159,6 +9345,9 @@
       </c>
       <c r="G293" t="s">
         <v>477</v>
+      </c>
+      <c r="H293" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -9170,6 +9359,9 @@
       <c r="G294" t="s">
         <v>477</v>
       </c>
+      <c r="H294" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
@@ -9180,6 +9372,9 @@
       <c r="G295" t="s">
         <v>477</v>
       </c>
+      <c r="H295" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
@@ -9189,6 +9384,9 @@
       </c>
       <c r="G296" t="s">
         <v>477</v>
+      </c>
+      <c r="H296" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -10031,36 +10229,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="23" customWidth="1"/>
-    <col min="14" max="14" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="14" customWidth="1"/>
-    <col min="17" max="17" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="14" customWidth="1"/>
-    <col min="20" max="20" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" style="14" customWidth="1"/>
-    <col min="23" max="24" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.25" style="14" customWidth="1"/>
+    <col min="23" max="24" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -10404,9 +10602,33 @@
         <v>577</v>
       </c>
       <c r="J19" s="14"/>
+      <c r="K19" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>618</v>
+      </c>
       <c r="M19" s="23"/>
+      <c r="N19" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="P19" s="14"/>
+      <c r="Q19" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>627</v>
+      </c>
       <c r="S19" s="14"/>
+      <c r="T19" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>632</v>
+      </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
     </row>
@@ -10433,9 +10655,33 @@
         <v>189</v>
       </c>
       <c r="J20" s="14"/>
+      <c r="K20" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>619</v>
+      </c>
       <c r="M20" s="23"/>
+      <c r="N20" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>624</v>
+      </c>
       <c r="P20" s="14"/>
+      <c r="Q20" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>629</v>
+      </c>
       <c r="S20" s="14"/>
+      <c r="T20" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="U20" s="20" t="s">
+        <v>633</v>
+      </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
     </row>
@@ -10448,6 +10694,12 @@
         <v>538</v>
       </c>
       <c r="D21" s="14"/>
+      <c r="E21" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>608</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
       <c r="M21" s="23"/>
@@ -10589,10 +10841,40 @@
       </c>
       <c r="D28" s="14"/>
       <c r="G28" s="14"/>
+      <c r="H28" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>613</v>
+      </c>
       <c r="J28" s="14"/>
+      <c r="K28" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>612</v>
+      </c>
       <c r="M28" s="23"/>
+      <c r="N28" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>625</v>
+      </c>
       <c r="P28" s="14"/>
+      <c r="Q28" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>635</v>
+      </c>
       <c r="S28" s="14"/>
+      <c r="T28" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="U28" s="20" t="s">
+        <v>636</v>
+      </c>
       <c r="V28" s="14"/>
       <c r="W28" s="20" t="s">
         <v>561</v>
@@ -10916,6 +11198,9 @@
         <v>289</v>
       </c>
       <c r="S38" s="14"/>
+      <c r="T38" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="V38" s="14"/>
       <c r="Y38" s="14"/>
     </row>
@@ -11252,6 +11537,9 @@
         <v>570</v>
       </c>
       <c r="S48" s="14"/>
+      <c r="T48" s="8" t="s">
+        <v>611</v>
+      </c>
       <c r="U48" s="8" t="s">
         <v>474</v>
       </c>
@@ -11648,6 +11936,9 @@
       <c r="S59" s="14"/>
       <c r="T59" s="8" t="s">
         <v>579</v>
+      </c>
+      <c r="U59" s="8" t="s">
+        <v>610</v>
       </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -10031,8 +10031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="639">
   <si>
     <t>Arne</t>
   </si>
@@ -1850,6 +1850,99 @@
   </si>
   <si>
     <t>Bureau</t>
+  </si>
+  <si>
+    <t>BGM_level1</t>
+  </si>
+  <si>
+    <t>SFX_KAPPADIE</t>
+  </si>
+  <si>
+    <t>SFX_HITKAPPA</t>
+  </si>
+  <si>
+    <t>SFX_BABYDIE</t>
+  </si>
+  <si>
+    <t>AMB_CICADAS</t>
+  </si>
+  <si>
+    <t>AMB_OWLS</t>
+  </si>
+  <si>
+    <t>AMB_BIRDS</t>
+  </si>
+  <si>
+    <t>AMB_WATER</t>
+  </si>
+  <si>
+    <t>SFX_SLASH1</t>
+  </si>
+  <si>
+    <t>SFX_DASH</t>
+  </si>
+  <si>
+    <t>SFX_SMOKEBOMB</t>
+  </si>
+  <si>
+    <t>SFX_SHURIKENTHROW</t>
+  </si>
+  <si>
+    <t>SFX_HOOK</t>
+  </si>
+  <si>
+    <t>SFX_DIE</t>
+  </si>
+  <si>
+    <t>SFX_JUMP</t>
+  </si>
+  <si>
+    <t>SFX_SHURIKENHITWALL</t>
+  </si>
+  <si>
+    <t>SFX_HOOKHIT</t>
+  </si>
+  <si>
+    <t>SFX_ENEMYATTACK</t>
+  </si>
+  <si>
+    <t>SFX_SLASH2</t>
+  </si>
+  <si>
+    <t>SFX_SLASH3</t>
+  </si>
+  <si>
+    <t>SFX_HITDESTRUCTIBLE</t>
+  </si>
+  <si>
+    <t>SFX_HEARTOBTAINED</t>
+  </si>
+  <si>
+    <t>SFX_LIFEOBTAINED</t>
+  </si>
+  <si>
+    <t>SFX_ITEMOBTAINED</t>
+  </si>
+  <si>
+    <t>SFX_QUESTADDED</t>
+  </si>
+  <si>
+    <t>SFX_QUESTCOMPLETED</t>
+  </si>
+  <si>
+    <t>SFX_GETHIT</t>
+  </si>
+  <si>
+    <t>SFX_GROWL1</t>
+  </si>
+  <si>
+    <t>SFX_STEP</t>
+  </si>
+  <si>
+    <t>SFX_BUTTONHOVER</t>
+  </si>
+  <si>
+    <t>SFX_BUTTONPRESS</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EU20"/>
   <sheetViews>
-    <sheetView topLeftCell="CH1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="CH22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4328,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J359"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J171" sqref="J171"/>
+    <sheetView topLeftCell="B264" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F287" sqref="F287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8792,7 +8885,7 @@
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="16" t="s">
         <v>419</v>
@@ -8806,8 +8899,11 @@
       <c r="G257" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
@@ -8816,8 +8912,11 @@
       <c r="G258" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
@@ -8826,8 +8925,11 @@
       <c r="G259" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
@@ -8836,8 +8938,11 @@
       <c r="G260" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
@@ -8846,8 +8951,11 @@
       <c r="G261" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
@@ -8856,8 +8964,11 @@
       <c r="G262" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
@@ -8866,8 +8977,11 @@
       <c r="G263" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
@@ -8876,8 +8990,11 @@
       <c r="G264" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
@@ -8886,8 +9003,11 @@
       <c r="G265" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
@@ -8896,8 +9016,11 @@
       <c r="G266" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
@@ -8906,8 +9029,11 @@
       <c r="G267" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
@@ -8916,8 +9042,11 @@
       <c r="G268" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
@@ -8926,8 +9055,11 @@
       <c r="G269" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
@@ -8936,8 +9068,11 @@
       <c r="G270" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
@@ -8946,8 +9081,11 @@
       <c r="G271" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
@@ -8956,8 +9094,11 @@
       <c r="G272" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
@@ -8966,12 +9107,15 @@
       <c r="G273" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="7" t="s">
         <v>486</v>
@@ -8982,8 +9126,11 @@
       <c r="G275" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
@@ -8992,8 +9139,11 @@
       <c r="G276" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" t="s">
@@ -9002,8 +9152,11 @@
       <c r="G277" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" t="s">
@@ -9012,8 +9165,11 @@
       <c r="G278" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" t="s">
@@ -9022,8 +9178,11 @@
       <c r="G279" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
@@ -9032,8 +9191,11 @@
       <c r="G280" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
@@ -9042,8 +9204,11 @@
       <c r="G281" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
@@ -9052,8 +9217,11 @@
       <c r="G282" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
@@ -9062,12 +9230,15 @@
       <c r="G283" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="16" t="s">
         <v>432</v>
@@ -9081,8 +9252,11 @@
       <c r="G285" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" t="s">
@@ -9091,8 +9265,11 @@
       <c r="G286" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" t="s">
@@ -9101,8 +9278,11 @@
       <c r="G287" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" t="s">
@@ -9110,6 +9290,9 @@
       </c>
       <c r="G288" t="s">
         <v>471</v>
+      </c>
+      <c r="H288" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -9121,6 +9304,9 @@
       <c r="G289" t="s">
         <v>471</v>
       </c>
+      <c r="H289" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
@@ -9131,6 +9317,9 @@
       <c r="G290" t="s">
         <v>477</v>
       </c>
+      <c r="H290" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
@@ -9141,6 +9330,9 @@
       <c r="G291" t="s">
         <v>471</v>
       </c>
+      <c r="H291" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
@@ -9159,6 +9351,9 @@
       </c>
       <c r="G293" t="s">
         <v>477</v>
+      </c>
+      <c r="H293" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -9170,6 +9365,9 @@
       <c r="G294" t="s">
         <v>477</v>
       </c>
+      <c r="H294" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
@@ -9180,6 +9378,9 @@
       <c r="G295" t="s">
         <v>477</v>
       </c>
+      <c r="H295" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
@@ -9189,6 +9390,9 @@
       </c>
       <c r="G296" t="s">
         <v>477</v>
+      </c>
+      <c r="H296" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -10032,7 +10236,7 @@
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10177,16 +10381,13 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="20" t="s">
+        <v>391</v>
+      </c>
       <c r="C3" s="20" t="s">
         <v>391</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>386</v>
-      </c>
       <c r="G3" s="14"/>
       <c r="J3" s="14"/>
       <c r="M3" s="23"/>
@@ -10197,6 +10398,9 @@
     </row>
     <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
+      <c r="B4" s="20" t="s">
+        <v>400</v>
+      </c>
       <c r="C4" s="20" t="s">
         <v>400</v>
       </c>
@@ -10211,6 +10415,9 @@
     </row>
     <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
+      <c r="B5" s="20" t="s">
+        <v>385</v>
+      </c>
       <c r="C5" s="20" t="s">
         <v>385</v>
       </c>
@@ -10225,6 +10432,12 @@
     </row>
     <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
+      <c r="B6" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
@@ -10404,9 +10617,33 @@
         <v>577</v>
       </c>
       <c r="J19" s="14"/>
+      <c r="K19" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>618</v>
+      </c>
       <c r="M19" s="23"/>
+      <c r="N19" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>623</v>
+      </c>
       <c r="P19" s="14"/>
+      <c r="Q19" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>627</v>
+      </c>
       <c r="S19" s="14"/>
+      <c r="T19" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>632</v>
+      </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
     </row>
@@ -10420,22 +10657,46 @@
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="20" t="s">
-        <v>188</v>
+        <v>608</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>381</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="20" t="s">
-        <v>229</v>
+        <v>637</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>189</v>
+        <v>638</v>
       </c>
       <c r="J20" s="14"/>
+      <c r="K20" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>619</v>
+      </c>
       <c r="M20" s="23"/>
+      <c r="N20" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>624</v>
+      </c>
       <c r="P20" s="14"/>
+      <c r="Q20" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>629</v>
+      </c>
       <c r="S20" s="14"/>
+      <c r="T20" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="U20" s="20" t="s">
+        <v>633</v>
+      </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
     </row>
@@ -10448,8 +10709,17 @@
         <v>538</v>
       </c>
       <c r="D21" s="14"/>
+      <c r="F21" s="20" t="s">
+        <v>608</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
+      <c r="K21" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>379</v>
+      </c>
       <c r="M21" s="23"/>
       <c r="P21" s="14"/>
       <c r="S21" s="14"/>
@@ -10537,10 +10807,10 @@
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="20" t="s">
-        <v>379</v>
+        <v>615</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>379</v>
+        <v>613</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="20" t="s">
@@ -10588,11 +10858,44 @@
         <v>528</v>
       </c>
       <c r="D28" s="14"/>
+      <c r="E28" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="G28" s="14"/>
+      <c r="H28" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="J28" s="14"/>
+      <c r="K28" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>612</v>
+      </c>
       <c r="M28" s="23"/>
+      <c r="N28" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>625</v>
+      </c>
       <c r="P28" s="14"/>
+      <c r="Q28" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>635</v>
+      </c>
       <c r="S28" s="14"/>
+      <c r="T28" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="U28" s="20" t="s">
+        <v>636</v>
+      </c>
       <c r="V28" s="14"/>
       <c r="W28" s="20" t="s">
         <v>561</v>
@@ -10916,6 +11219,9 @@
         <v>289</v>
       </c>
       <c r="S38" s="14"/>
+      <c r="T38" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="V38" s="14"/>
       <c r="Y38" s="14"/>
     </row>
@@ -11252,6 +11558,9 @@
         <v>570</v>
       </c>
       <c r="S48" s="14"/>
+      <c r="T48" s="8" t="s">
+        <v>611</v>
+      </c>
       <c r="U48" s="8" t="s">
         <v>474</v>
       </c>
@@ -11648,6 +11957,9 @@
       <c r="S59" s="14"/>
       <c r="T59" s="8" t="s">
         <v>579</v>
+      </c>
+      <c r="U59" s="8" t="s">
+        <v>610</v>
       </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="639">
   <si>
     <t>Arne</t>
   </si>
@@ -1582,9 +1582,6 @@
     <t>WEEK 41</t>
   </si>
   <si>
-    <t>WEEK 42</t>
-  </si>
-  <si>
     <t>WEEK 44</t>
   </si>
   <si>
@@ -1943,6 +1940,9 @@
   </si>
   <si>
     <t>SFX_BUTTONPRESS</t>
+  </si>
+  <si>
+    <t>WEEK 43</t>
   </si>
 </sst>
 </file>
@@ -2887,10 +2887,10 @@
         <v>490</v>
       </c>
       <c r="CJ2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="EU2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
@@ -2916,10 +2916,10 @@
         <v>490</v>
       </c>
       <c r="CJ3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="EU3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
@@ -2945,10 +2945,10 @@
         <v>490</v>
       </c>
       <c r="CJ4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="EU4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -2974,19 +2974,19 @@
         <v>490</v>
       </c>
       <c r="CJ5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="EU5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="CJ6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="EU6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
@@ -2994,10 +2994,10 @@
         <v>4</v>
       </c>
       <c r="CJ7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="EU7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
@@ -3023,10 +3023,10 @@
         <v>490</v>
       </c>
       <c r="CJ8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="EU8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
@@ -3052,10 +3052,10 @@
         <v>490</v>
       </c>
       <c r="CJ9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="EU9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
@@ -3081,10 +3081,10 @@
         <v>490</v>
       </c>
       <c r="CJ10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="EU10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
@@ -3659,7 +3659,7 @@
         <v>11</v>
       </c>
       <c r="CJ12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="CN12" s="1" t="s">
         <v>11</v>
@@ -3746,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="EU12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:151" x14ac:dyDescent="0.25">
@@ -3778,13 +3778,13 @@
         <v>13</v>
       </c>
       <c r="CJ13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="ES13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="EU13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>464</v>
       </c>
       <c r="CJ14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="CP14" t="s">
         <v>465</v>
@@ -3858,7 +3858,7 @@
         <v>470</v>
       </c>
       <c r="EU14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
@@ -3884,430 +3884,430 @@
         <v>490</v>
       </c>
       <c r="J15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="X15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Y15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Z15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AB15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AC15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AD15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AE15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AH15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AI15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AJ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AK15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AL15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AM15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AO15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AP15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AQ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AR15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AS15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AT15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AU15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AV15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AW15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AX15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AY15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AZ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BA15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BB15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BC15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BD15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BE15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BF15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BG15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BH15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BI15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BJ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BK15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BL15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BM15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BN15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BO15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BP15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BQ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BR15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BS15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BT15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BU15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BV15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BW15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BX15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BY15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BZ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CA15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CB15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CC15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CD15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CE15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CF15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CG15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CH15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CI15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CJ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CK15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CL15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CM15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CN15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CO15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CP15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CQ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CR15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CS15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CT15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CU15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CV15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CW15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CX15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CY15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="CZ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DA15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DB15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DC15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DD15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DE15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DF15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DG15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DH15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DI15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DJ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DK15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DL15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DM15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DN15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DO15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DP15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DQ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DR15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DS15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DT15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DU15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DV15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DW15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DX15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DY15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="DZ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EA15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EB15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EC15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="ED15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EE15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EF15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EG15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EH15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EI15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EJ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EK15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EL15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EM15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EN15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EO15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EP15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EQ15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="ER15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="ES15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="ET15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EU15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:151" x14ac:dyDescent="0.25">
@@ -4421,7 +4421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J359"/>
   <sheetViews>
-    <sheetView topLeftCell="B264" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B243" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F287" sqref="F287"/>
     </sheetView>
   </sheetViews>
@@ -4461,7 +4461,7 @@
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4884,7 +4884,7 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G25" t="s">
         <v>477</v>
@@ -5267,7 +5267,7 @@
         <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G45" t="s">
         <v>471</v>
@@ -5286,7 +5286,7 @@
         <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G46" t="s">
         <v>471</v>
@@ -5305,7 +5305,7 @@
         <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G47" t="s">
         <v>471</v>
@@ -5991,10 +5991,10 @@
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D83" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -6323,10 +6323,10 @@
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D103" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G103" t="s">
         <v>477</v>
@@ -7516,10 +7516,10 @@
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D171" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G171" t="s">
         <v>477</v>
@@ -9858,7 +9858,7 @@
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G328" t="s">
         <v>471</v>
@@ -9961,7 +9961,7 @@
       <c r="A335" s="14"/>
       <c r="B335" s="15"/>
       <c r="C335" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G335" t="s">
         <v>471</v>
@@ -10000,7 +10000,7 @@
         <v>311</v>
       </c>
       <c r="E338" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G338" t="s">
         <v>477</v>
@@ -10023,10 +10023,10 @@
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" t="s">
+        <v>591</v>
+      </c>
+      <c r="D340" t="s">
         <v>592</v>
-      </c>
-      <c r="D340" t="s">
-        <v>593</v>
       </c>
       <c r="G340" t="s">
         <v>477</v>
@@ -10036,10 +10036,10 @@
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" t="s">
+        <v>593</v>
+      </c>
+      <c r="D341" t="s">
         <v>594</v>
-      </c>
-      <c r="D341" t="s">
-        <v>595</v>
       </c>
       <c r="G341" t="s">
         <v>477</v>
@@ -10049,10 +10049,10 @@
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" t="s">
+        <v>595</v>
+      </c>
+      <c r="D342" t="s">
         <v>596</v>
-      </c>
-      <c r="D342" t="s">
-        <v>597</v>
       </c>
       <c r="G342" t="s">
         <v>477</v>
@@ -10068,17 +10068,17 @@
         <v>405</v>
       </c>
       <c r="C344" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D345" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G345" t="s">
         <v>477</v>
@@ -10088,10 +10088,10 @@
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D346" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G346" t="s">
         <v>477</v>
@@ -10104,7 +10104,7 @@
         <v>279</v>
       </c>
       <c r="D347" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G347" t="s">
         <v>477</v>
@@ -10114,10 +10114,10 @@
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D348" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G348" t="s">
         <v>477</v>
@@ -10127,10 +10127,10 @@
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D349" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G349" t="s">
         <v>477</v>
@@ -10143,20 +10143,20 @@
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" t="s">
+        <v>582</v>
+      </c>
+      <c r="C351" t="s">
         <v>583</v>
-      </c>
-      <c r="C351" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D352" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G352" t="s">
         <v>477</v>
@@ -10166,10 +10166,10 @@
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D353" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G353" t="s">
         <v>477</v>
@@ -10179,13 +10179,13 @@
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
       <c r="C354" t="s">
+        <v>589</v>
+      </c>
+      <c r="D354" t="s">
         <v>590</v>
       </c>
-      <c r="D354" t="s">
-        <v>591</v>
-      </c>
       <c r="E354" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G354" t="s">
         <v>477</v>
@@ -10235,8 +10235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10293,7 +10293,7 @@
         <v>463</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N1" t="s">
         <v>464</v>
@@ -10317,7 +10317,7 @@
         <v>470</v>
       </c>
       <c r="X1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10336,38 +10336,38 @@
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>518</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>519</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>520</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>521</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>522</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>523</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19" t="s">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>387</v>
@@ -10524,7 +10524,7 @@
         <v>393</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="G12" s="14"/>
       <c r="J12" s="14"/>
@@ -10537,6 +10537,9 @@
     <row r="13" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="D13" s="14"/>
+      <c r="E13" s="20" t="s">
+        <v>384</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="J13" s="14"/>
       <c r="M13" s="23"/>
@@ -10597,52 +10600,52 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="20" t="s">
         <v>371</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
         <v>380</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="R19" s="20" t="s">
         <v>626</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>627</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
@@ -10650,52 +10653,52 @@
     <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>381</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>637</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>638</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="R20" s="20" t="s">
         <v>628</v>
-      </c>
-      <c r="R20" s="20" t="s">
-        <v>629</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
@@ -10703,14 +10706,14 @@
     <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D21" s="14"/>
       <c r="F21" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
@@ -10729,7 +10732,7 @@
     <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D22" s="14"/>
       <c r="G22" s="14"/>
@@ -10743,7 +10746,7 @@
     <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D23" s="14"/>
       <c r="G23" s="14"/>
@@ -10757,7 +10760,7 @@
     <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D24" s="14"/>
       <c r="G24" s="14"/>
@@ -10771,7 +10774,7 @@
     <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>371</v>
@@ -10793,24 +10796,24 @@
         <v>410</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="20" t="s">
@@ -10842,20 +10845,20 @@
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Y27" s="14"/>
     </row>
     <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="20" t="s">
@@ -10870,35 +10873,35 @@
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="R28" s="20" t="s">
         <v>634</v>
-      </c>
-      <c r="R28" s="20" t="s">
-        <v>635</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Y28" s="14"/>
     </row>
@@ -10918,7 +10921,7 @@
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Y29" s="14"/>
     </row>
@@ -11028,7 +11031,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>225</v>
@@ -11056,7 +11059,7 @@
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>237</v>
@@ -11078,7 +11081,7 @@
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>227</v>
@@ -11106,7 +11109,7 @@
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>238</v>
@@ -11128,7 +11131,7 @@
     <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>235</v>
@@ -11156,7 +11159,7 @@
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>239</v>
@@ -11199,7 +11202,7 @@
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>344</v>
@@ -11220,7 +11223,7 @@
       </c>
       <c r="S38" s="14"/>
       <c r="T38" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="V38" s="14"/>
       <c r="Y38" s="14"/>
@@ -11228,17 +11231,17 @@
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>234</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G39" s="14"/>
       <c r="J39" s="14"/>
@@ -11269,7 +11272,7 @@
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>451</v>
@@ -11333,7 +11336,7 @@
     <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>453</v>
@@ -11365,10 +11368,10 @@
     <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="14"/>
@@ -11391,7 +11394,7 @@
     <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
@@ -11411,7 +11414,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>554</v>
+        <v>496</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>367</v>
@@ -11432,7 +11435,7 @@
       </c>
       <c r="J46" s="14"/>
       <c r="K46" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>359</v>
@@ -11449,7 +11452,7 @@
         <v>72</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
@@ -11464,7 +11467,7 @@
     <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>366</v>
@@ -11485,7 +11488,7 @@
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>276</v>
@@ -11502,7 +11505,7 @@
         <v>75</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
@@ -11516,9 +11519,6 @@
     </row>
     <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="8" t="s">
-        <v>556</v>
-      </c>
       <c r="C48" s="8" t="s">
         <v>368</v>
       </c>
@@ -11538,7 +11538,7 @@
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>277</v>
@@ -11555,11 +11555,11 @@
         <v>74</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U48" s="8" t="s">
         <v>474</v>
@@ -11569,15 +11569,15 @@
     </row>
     <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="8" t="s">
-        <v>496</v>
+      <c r="C49" s="8" t="s">
+        <v>494</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="8" t="s">
@@ -11613,17 +11613,17 @@
     </row>
     <row r="50" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="B50" s="8" t="s">
-        <v>476</v>
-      </c>
       <c r="D50" s="14"/>
       <c r="E50" s="8" t="s">
-        <v>558</v>
+        <v>497</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>493</v>
       </c>
       <c r="G50" s="14"/>
+      <c r="H50" s="8" t="s">
+        <v>557</v>
+      </c>
       <c r="J50" s="14"/>
       <c r="K50" s="8" t="s">
         <v>281</v>
@@ -11648,9 +11648,6 @@
     </row>
     <row r="51" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
-      <c r="B51" s="8" t="s">
-        <v>497</v>
-      </c>
       <c r="D51" s="14"/>
       <c r="E51" s="8" t="s">
         <v>498</v>
@@ -11659,6 +11656,9 @@
         <v>495</v>
       </c>
       <c r="G51" s="14"/>
+      <c r="H51" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="J51" s="14"/>
       <c r="K51" s="8" t="s">
         <v>282</v>
@@ -11688,6 +11688,9 @@
         <v>175</v>
       </c>
       <c r="G52" s="14"/>
+      <c r="H52" s="8" t="s">
+        <v>476</v>
+      </c>
       <c r="J52" s="14"/>
       <c r="K52" s="8" t="s">
         <v>262</v>
@@ -11711,12 +11714,15 @@
       <c r="A53" s="7"/>
       <c r="D53" s="14"/>
       <c r="E53" s="8" t="s">
-        <v>148</v>
+        <v>555</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>174</v>
+        <v>555</v>
       </c>
       <c r="G53" s="14"/>
+      <c r="H53" s="8" t="s">
+        <v>553</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="8" t="s">
         <v>308</v>
@@ -11743,11 +11749,14 @@
         <v>176</v>
       </c>
       <c r="G54" s="14"/>
+      <c r="H54" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="J54" s="14"/>
       <c r="M54" s="23"/>
       <c r="P54" s="14"/>
       <c r="Q54" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R54" s="8" t="s">
         <v>68</v>
@@ -11956,10 +11965,10 @@
       </c>
       <c r="S59" s="14"/>
       <c r="T59" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>
@@ -12013,7 +12022,7 @@
         <v>194</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J61" s="14"/>
       <c r="M61" s="23"/>
@@ -12032,7 +12041,7 @@
       </c>
       <c r="S61" s="14"/>
       <c r="T61" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V61" s="14"/>
       <c r="Y61" s="14"/>
@@ -12040,6 +12049,9 @@
     <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="D62" s="14"/>
+      <c r="F62" s="8" t="s">
+        <v>452</v>
+      </c>
       <c r="G62" s="14"/>
       <c r="J62" s="14"/>
       <c r="M62" s="23"/>
@@ -12054,6 +12066,9 @@
     <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="D63" s="14"/>
+      <c r="F63" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="G63" s="14"/>
       <c r="J63" s="14"/>
       <c r="M63" s="23"/>
@@ -12065,6 +12080,9 @@
     <row r="64" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="D64" s="14"/>
+      <c r="F64" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="G64" s="14"/>
       <c r="J64" s="14"/>
       <c r="M64" s="23"/>
